--- a/Test Results.xlsx
+++ b/Test Results.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jack\Documents\CSC3095-Dissertation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\CSC3095-Dissertation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C9C2906-A9D3-4903-B6DC-AE0310992199}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FB94F82-B9A2-4217-B8A9-55F972726A25}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{43AB4C6B-370F-4888-996C-F8629A52645F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{43AB4C6B-370F-4888-996C-F8629A52645F}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Speed Tests" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
@@ -28,7 +28,6 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -58,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="29">
   <si>
     <t>Span Fill</t>
   </si>
@@ -140,6 +139,12 @@
   <si>
     <t>50% Checkered</t>
   </si>
+  <si>
+    <t>Stack</t>
+  </si>
+  <si>
+    <t>Queue</t>
+  </si>
 </sst>
 </file>
 
@@ -196,7 +201,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -355,11 +360,29 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -392,7 +415,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -494,7 +520,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$4</c:f>
+              <c:f>'Speed Tests'!$C$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -541,7 +567,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$5:$B$20</c:f>
+              <c:f>'Speed Tests'!$B$5:$B$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -598,7 +624,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$5:$C$20</c:f>
+              <c:f>'Speed Tests'!$C$5:$C$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -665,7 +691,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$4</c:f>
+              <c:f>'Speed Tests'!$D$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -712,7 +738,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$5:$B$20</c:f>
+              <c:f>'Speed Tests'!$B$5:$B$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -769,7 +795,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$D$5:$D$20</c:f>
+              <c:f>'Speed Tests'!$D$5:$D$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -836,7 +862,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$E$4</c:f>
+              <c:f>'Speed Tests'!$E$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -883,7 +909,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$5:$B$20</c:f>
+              <c:f>'Speed Tests'!$B$5:$B$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -940,7 +966,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$E$5:$E$20</c:f>
+              <c:f>'Speed Tests'!$E$5:$E$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -1007,7 +1033,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$F$4</c:f>
+              <c:f>'Speed Tests'!$F$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1040,7 +1066,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$5:$B$20</c:f>
+              <c:f>'Speed Tests'!$B$5:$B$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -1097,7 +1123,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$F$5:$F$20</c:f>
+              <c:f>'Speed Tests'!$F$5:$F$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -1164,7 +1190,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$G$4</c:f>
+              <c:f>'Speed Tests'!$G$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1197,7 +1223,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$5:$B$20</c:f>
+              <c:f>'Speed Tests'!$B$5:$B$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -1254,7 +1280,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$G$5:$G$20</c:f>
+              <c:f>'Speed Tests'!$G$5:$G$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -1321,7 +1347,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$H$4</c:f>
+              <c:f>'Speed Tests'!$H$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1354,7 +1380,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$5:$B$20</c:f>
+              <c:f>'Speed Tests'!$B$5:$B$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -1411,7 +1437,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$H$5:$H$20</c:f>
+              <c:f>'Speed Tests'!$H$5:$H$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -1478,7 +1504,7 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$I$4</c:f>
+              <c:f>'Speed Tests'!$I$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1515,7 +1541,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$5:$B$20</c:f>
+              <c:f>'Speed Tests'!$B$5:$B$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -1572,7 +1598,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$I$5:$I$20</c:f>
+              <c:f>'Speed Tests'!$I$5:$I$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -1639,7 +1665,7 @@
           <c:order val="7"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$J$4</c:f>
+              <c:f>'Speed Tests'!$J$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1676,7 +1702,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$5:$B$20</c:f>
+              <c:f>'Speed Tests'!$B$5:$B$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -1733,7 +1759,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$J$5:$J$20</c:f>
+              <c:f>'Speed Tests'!$J$5:$J$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -2172,6 +2198,1782 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-GB"/>
+              <a:t>Square Size</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Speed Tests'!$C$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Four Way (Recursive)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Speed Tests'!$A$5:$A$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Speed Tests'!$C$5:$C$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>149</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>325</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>582</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>913</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1317</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2352</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3680</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3E45-445F-BDAF-0D000E30EF36}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Speed Tests'!$D$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Four Way (Linear)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Speed Tests'!$A$5:$A$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Speed Tests'!$D$5:$D$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>146</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>331</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>574</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>896</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2289</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3563</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8792</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>15152</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>24574</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>33267</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>56608</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>83682</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>120171</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>215834</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-3E45-445F-BDAF-0D000E30EF36}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Speed Tests'!$E$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Span Fill</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Speed Tests'!$A$5:$A$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Speed Tests'!$E$5:$E$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>249</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>345</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>593</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>911</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1983</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3498</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5422</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7729</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13559</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>21126</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>30163</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>53488</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-3E45-445F-BDAF-0D000E30EF36}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Speed Tests'!$F$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Walk Based</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Speed Tests'!$A$5:$A$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Speed Tests'!$F$5:$F$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>1275</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1478</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2030</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2527</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2986</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4202</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5884</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8977</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16789</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>30270</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44203</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>61639</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>108003</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>166962</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>238452</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>430454</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-3E45-445F-BDAF-0D000E30EF36}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Speed Tests'!$G$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Four Way (Recursive)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Speed Tests'!$A$5:$A$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Speed Tests'!$G$5:$G$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>667</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1047</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1504</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2678</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4194</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-3E45-445F-BDAF-0D000E30EF36}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Speed Tests'!$H$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Four Way (Linear)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Speed Tests'!$A$5:$A$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Speed Tests'!$H$5:$H$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>334</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>590</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>927</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1352</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2362</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3841</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8390</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14836</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>23226</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>33418</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>60179</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>94604</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>131444</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>237285</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-3E45-445F-BDAF-0D000E30EF36}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Speed Tests'!$I$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Span Fill</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Speed Tests'!$A$5:$A$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Speed Tests'!$I$5:$I$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>246</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>343</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>599</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>910</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1987</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3479</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5382</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7719</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13608</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>21314</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>30308</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>53522</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-3E45-445F-BDAF-0D000E30EF36}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Speed Tests'!$J$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Walk Based</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Speed Tests'!$A$5:$A$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Speed Tests'!$J$5:$J$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>737</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>901</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1211</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1626</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2422</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3067</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4861</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7449</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15453</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>27114</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>43209</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>59390</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>116620</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>166097</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>238060</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>422658</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-3E45-445F-BDAF-0D000E30EF36}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="849464392"/>
+        <c:axId val="849463408"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="849464392"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Sqaure Length</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> (pixels)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="849463408"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="849463408"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Time</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> (</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="el-GR" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>μ</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>s)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="849464392"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
               <a:t>No. Pix</a:t>
             </a:r>
             <a:r>
@@ -2221,7 +4023,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$4</c:f>
+              <c:f>'Speed Tests'!$C$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2268,7 +4070,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$5:$B$20</c:f>
+              <c:f>'Speed Tests'!$B$5:$B$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -2325,7 +4127,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$5:$C$20</c:f>
+              <c:f>'Speed Tests'!$C$5:$C$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -2392,7 +4194,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$4</c:f>
+              <c:f>'Speed Tests'!$D$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2439,7 +4241,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$5:$B$20</c:f>
+              <c:f>'Speed Tests'!$B$5:$B$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -2496,7 +4298,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$D$5:$D$20</c:f>
+              <c:f>'Speed Tests'!$D$5:$D$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -2563,7 +4365,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$E$4</c:f>
+              <c:f>'Speed Tests'!$E$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2610,7 +4412,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$5:$B$20</c:f>
+              <c:f>'Speed Tests'!$B$5:$B$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -2667,7 +4469,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$E$5:$E$20</c:f>
+              <c:f>'Speed Tests'!$E$5:$E$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -2734,7 +4536,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$F$4</c:f>
+              <c:f>'Speed Tests'!$F$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2767,7 +4569,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$5:$B$20</c:f>
+              <c:f>'Speed Tests'!$B$5:$B$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -2824,7 +4626,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$F$5:$F$20</c:f>
+              <c:f>'Speed Tests'!$F$5:$F$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -2891,7 +4693,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$G$4</c:f>
+              <c:f>'Speed Tests'!$G$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2924,7 +4726,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$5:$B$20</c:f>
+              <c:f>'Speed Tests'!$B$5:$B$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -2981,7 +4783,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$G$5:$G$20</c:f>
+              <c:f>'Speed Tests'!$G$5:$G$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -3048,7 +4850,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$H$4</c:f>
+              <c:f>'Speed Tests'!$H$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3095,7 +4897,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$5:$B$20</c:f>
+              <c:f>'Speed Tests'!$B$5:$B$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -3152,7 +4954,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$H$5:$H$20</c:f>
+              <c:f>'Speed Tests'!$H$5:$H$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -3219,7 +5021,7 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$I$4</c:f>
+              <c:f>'Speed Tests'!$I$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3272,7 +5074,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$5:$B$20</c:f>
+              <c:f>'Speed Tests'!$B$5:$B$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -3329,7 +5131,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$I$5:$I$20</c:f>
+              <c:f>'Speed Tests'!$I$5:$I$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -3396,7 +5198,7 @@
           <c:order val="7"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$J$4</c:f>
+              <c:f>'Speed Tests'!$J$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3449,7 +5251,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$5:$B$20</c:f>
+              <c:f>'Speed Tests'!$B$5:$B$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -3506,7 +5308,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$J$5:$J$20</c:f>
+              <c:f>'Speed Tests'!$J$5:$J$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -3910,7 +5712,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3990,7 +5792,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$4</c:f>
+              <c:f>'Speed Tests'!$C$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4038,7 +5840,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$23:$A$38</c:f>
+              <c:f>'Speed Tests'!$A$23:$A$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -4095,7 +5897,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$23:$C$31</c:f>
+              <c:f>'Speed Tests'!$C$23:$C$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -4141,7 +5943,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$4</c:f>
+              <c:f>'Speed Tests'!$D$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4189,7 +5991,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$23:$A$38</c:f>
+              <c:f>'Speed Tests'!$A$23:$A$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -4246,7 +6048,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$D$23:$D$38</c:f>
+              <c:f>'Speed Tests'!$D$23:$D$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -4313,7 +6115,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$E$4</c:f>
+              <c:f>'Speed Tests'!$E$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4361,7 +6163,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$23:$A$38</c:f>
+              <c:f>'Speed Tests'!$A$23:$A$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -4418,7 +6220,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$E$23:$E$38</c:f>
+              <c:f>'Speed Tests'!$E$23:$E$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -4485,7 +6287,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$F$4</c:f>
+              <c:f>'Speed Tests'!$F$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4518,7 +6320,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$23:$A$38</c:f>
+              <c:f>'Speed Tests'!$A$23:$A$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -4575,7 +6377,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$F$23:$F$38</c:f>
+              <c:f>'Speed Tests'!$F$23:$F$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -4642,7 +6444,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$G$4</c:f>
+              <c:f>'Speed Tests'!$G$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4675,7 +6477,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$23:$A$38</c:f>
+              <c:f>'Speed Tests'!$A$23:$A$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -4732,7 +6534,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$G$23:$G$31</c:f>
+              <c:f>'Speed Tests'!$G$23:$G$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -4778,7 +6580,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$H$4</c:f>
+              <c:f>'Speed Tests'!$H$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4811,7 +6613,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$23:$A$38</c:f>
+              <c:f>'Speed Tests'!$A$23:$A$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -4868,7 +6670,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$H$23:$H$38</c:f>
+              <c:f>'Speed Tests'!$H$23:$H$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -4935,7 +6737,7 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$I$4</c:f>
+              <c:f>'Speed Tests'!$I$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4972,7 +6774,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$23:$A$38</c:f>
+              <c:f>'Speed Tests'!$A$23:$A$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -5029,7 +6831,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$I$23:$I$38</c:f>
+              <c:f>'Speed Tests'!$I$23:$I$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -5096,7 +6898,7 @@
           <c:order val="7"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$J$4</c:f>
+              <c:f>'Speed Tests'!$J$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5133,7 +6935,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$23:$A$38</c:f>
+              <c:f>'Speed Tests'!$A$23:$A$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -5190,7 +6992,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$J$23:$J$38</c:f>
+              <c:f>'Speed Tests'!$J$23:$J$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -5595,7 +7397,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -5679,7 +7481,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$4</c:f>
+              <c:f>'Speed Tests'!$C$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5726,7 +7528,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$23:$B$38</c:f>
+              <c:f>'Speed Tests'!$B$23:$B$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -5783,7 +7585,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$23:$C$31</c:f>
+              <c:f>'Speed Tests'!$C$23:$C$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -5829,7 +7631,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$4</c:f>
+              <c:f>'Speed Tests'!$D$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5876,7 +7678,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$23:$B$38</c:f>
+              <c:f>'Speed Tests'!$B$23:$B$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -5933,7 +7735,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$D$23:$D$38</c:f>
+              <c:f>'Speed Tests'!$D$23:$D$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -6000,7 +7802,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$E$4</c:f>
+              <c:f>'Speed Tests'!$E$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6047,7 +7849,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$23:$B$38</c:f>
+              <c:f>'Speed Tests'!$B$23:$B$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -6104,7 +7906,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$E$23:$E$38</c:f>
+              <c:f>'Speed Tests'!$E$23:$E$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -6171,7 +7973,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$F$4</c:f>
+              <c:f>'Speed Tests'!$F$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6248,7 +8050,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$23:$B$38</c:f>
+              <c:f>'Speed Tests'!$B$23:$B$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -6305,7 +8107,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$F$23:$F$38</c:f>
+              <c:f>'Speed Tests'!$F$23:$F$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -6372,7 +8174,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$G$4</c:f>
+              <c:f>'Speed Tests'!$G$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6405,7 +8207,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$23:$B$38</c:f>
+              <c:f>'Speed Tests'!$B$23:$B$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -6462,7 +8264,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$G$23:$G$31</c:f>
+              <c:f>'Speed Tests'!$G$23:$G$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -6508,7 +8310,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$H$4</c:f>
+              <c:f>'Speed Tests'!$H$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6541,7 +8343,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$23:$B$38</c:f>
+              <c:f>'Speed Tests'!$B$23:$B$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -6598,7 +8400,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$H$23:$H$38</c:f>
+              <c:f>'Speed Tests'!$H$23:$H$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -6665,7 +8467,7 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$I$4</c:f>
+              <c:f>'Speed Tests'!$I$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6702,7 +8504,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$23:$B$38</c:f>
+              <c:f>'Speed Tests'!$B$23:$B$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -6759,7 +8561,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$I$23:$I$38</c:f>
+              <c:f>'Speed Tests'!$I$23:$I$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -6826,7 +8628,7 @@
           <c:order val="7"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$J$4</c:f>
+              <c:f>'Speed Tests'!$J$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6909,7 +8711,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$23:$B$38</c:f>
+              <c:f>'Speed Tests'!$B$23:$B$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -6966,7 +8768,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$J$23:$J$38</c:f>
+              <c:f>'Speed Tests'!$J$23:$J$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -7470,7 +9272,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$4</c:f>
+              <c:f>'Speed Tests'!$C$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7518,7 +9320,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$5:$A$20</c:f>
+              <c:f>'Speed Tests'!$A$5:$A$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -7575,7 +9377,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$5:$C$20</c:f>
+              <c:f>'Speed Tests'!$C$5:$C$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -7642,7 +9444,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$4</c:f>
+              <c:f>'Speed Tests'!$D$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7690,7 +9492,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$5:$A$20</c:f>
+              <c:f>'Speed Tests'!$A$5:$A$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -7747,7 +9549,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$D$5:$D$20</c:f>
+              <c:f>'Speed Tests'!$D$5:$D$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -7814,7 +9616,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$E$4</c:f>
+              <c:f>'Speed Tests'!$E$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7862,7 +9664,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$5:$A$20</c:f>
+              <c:f>'Speed Tests'!$A$5:$A$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -7919,7 +9721,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$E$5:$E$20</c:f>
+              <c:f>'Speed Tests'!$E$5:$E$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -7986,7 +9788,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$F$4</c:f>
+              <c:f>'Speed Tests'!$F$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -8019,7 +9821,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$5:$A$20</c:f>
+              <c:f>'Speed Tests'!$A$5:$A$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -8076,7 +9878,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$F$5:$F$20</c:f>
+              <c:f>'Speed Tests'!$F$5:$F$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -8135,642 +9937,6 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-7D67-4A0C-A9E4-F28C360273F9}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$G$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Four Way (Recursive)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent5"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$A$5:$A$20</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>125</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>250</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>400</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$G$5:$G$20</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>165</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>380</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>667</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1047</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1504</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2678</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4194</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-7D67-4A0C-A9E4-F28C360273F9}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$H$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Four Way (Linear)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent6"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$A$5:$A$20</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>125</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>250</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>400</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$H$5:$H$20</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>155</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>334</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>590</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>927</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1352</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2362</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3841</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8390</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>14836</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>23226</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>33418</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>60179</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>94604</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>131444</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>237285</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-7D67-4A0C-A9E4-F28C360273F9}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="6"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$I$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Span Fill</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="60000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$A$5:$A$20</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>125</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>250</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>400</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$I$5:$I$20</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>95</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>170</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>246</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>343</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>599</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>910</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1987</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3479</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>5382</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>7719</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>13608</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>21314</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>30308</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>53522</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-7D67-4A0C-A9E4-F28C360273F9}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="7"/>
-          <c:order val="7"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$J$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Walk Based</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2">
-                    <a:lumMod val="60000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$A$5:$A$20</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>125</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>250</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>400</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$J$5:$J$20</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>737</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>901</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1211</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1626</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2422</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3067</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4861</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7449</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>15453</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>27114</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>43209</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>59390</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>116620</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>166097</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>238060</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>422658</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000020-7D67-4A0C-A9E4-F28C360273F9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -9211,7 +10377,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$46</c:f>
+              <c:f>'Speed Tests'!$A$46</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -9232,7 +10398,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$C$45:$J$45</c:f>
+              <c:f>'Speed Tests'!$C$45:$J$45</c:f>
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
@@ -9264,7 +10430,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$46:$J$46</c:f>
+              <c:f>'Speed Tests'!$C$46:$J$46</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -9306,7 +10472,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$47</c:f>
+              <c:f>'Speed Tests'!$A$47</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -9327,7 +10493,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$C$45:$J$45</c:f>
+              <c:f>'Speed Tests'!$C$45:$J$45</c:f>
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
@@ -9359,7 +10525,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$47:$J$47</c:f>
+              <c:f>'Speed Tests'!$C$47:$J$47</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -9401,7 +10567,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$48</c:f>
+              <c:f>'Speed Tests'!$A$48</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -9422,7 +10588,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$C$45:$J$45</c:f>
+              <c:f>'Speed Tests'!$C$45:$J$45</c:f>
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
@@ -9454,7 +10620,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$48:$J$48</c:f>
+              <c:f>'Speed Tests'!$C$48:$J$48</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -9869,7 +11035,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$4</c:f>
+              <c:f>'Speed Tests'!$C$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -9917,7 +11083,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$23:$A$38</c:f>
+              <c:f>'Speed Tests'!$A$23:$A$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -9974,7 +11140,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$23:$C$31</c:f>
+              <c:f>'Speed Tests'!$C$23:$C$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -10020,7 +11186,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$4</c:f>
+              <c:f>'Speed Tests'!$D$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -10068,7 +11234,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$23:$A$38</c:f>
+              <c:f>'Speed Tests'!$A$23:$A$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -10125,7 +11291,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$D$23:$D$38</c:f>
+              <c:f>'Speed Tests'!$D$23:$D$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -10192,7 +11358,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$E$4</c:f>
+              <c:f>'Speed Tests'!$E$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -10240,7 +11406,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$23:$A$38</c:f>
+              <c:f>'Speed Tests'!$A$23:$A$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -10297,7 +11463,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$E$23:$E$38</c:f>
+              <c:f>'Speed Tests'!$E$23:$E$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -10364,7 +11530,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$F$4</c:f>
+              <c:f>'Speed Tests'!$F$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -10397,7 +11563,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$23:$A$38</c:f>
+              <c:f>'Speed Tests'!$A$23:$A$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -10454,7 +11620,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$F$23:$F$38</c:f>
+              <c:f>'Speed Tests'!$F$23:$F$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -10521,7 +11687,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$G$4</c:f>
+              <c:f>'Speed Tests'!$G$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -10554,7 +11720,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$23:$A$38</c:f>
+              <c:f>'Speed Tests'!$A$23:$A$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -10611,7 +11777,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$G$23:$G$31</c:f>
+              <c:f>'Speed Tests'!$G$23:$G$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -10657,7 +11823,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$H$4</c:f>
+              <c:f>'Speed Tests'!$H$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -10690,7 +11856,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$23:$A$38</c:f>
+              <c:f>'Speed Tests'!$A$23:$A$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -10747,7 +11913,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$H$23:$H$38</c:f>
+              <c:f>'Speed Tests'!$H$23:$H$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -10814,7 +11980,7 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$I$4</c:f>
+              <c:f>'Speed Tests'!$I$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -10851,7 +12017,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$23:$A$38</c:f>
+              <c:f>'Speed Tests'!$A$23:$A$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -10908,7 +12074,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$I$23:$I$38</c:f>
+              <c:f>'Speed Tests'!$I$23:$I$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -10975,7 +12141,7 @@
           <c:order val="7"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$J$4</c:f>
+              <c:f>'Speed Tests'!$J$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -11012,7 +12178,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$23:$A$38</c:f>
+              <c:f>'Speed Tests'!$A$23:$A$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -11069,7 +12235,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$J$23:$J$38</c:f>
+              <c:f>'Speed Tests'!$J$23:$J$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -11558,7 +12724,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$4</c:f>
+              <c:f>'Speed Tests'!$C$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -11605,7 +12771,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$23:$B$38</c:f>
+              <c:f>'Speed Tests'!$B$23:$B$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -11662,7 +12828,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$23:$C$31</c:f>
+              <c:f>'Speed Tests'!$C$23:$C$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -11708,7 +12874,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$4</c:f>
+              <c:f>'Speed Tests'!$D$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -11755,7 +12921,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$23:$B$38</c:f>
+              <c:f>'Speed Tests'!$B$23:$B$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -11812,7 +12978,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$D$23:$D$38</c:f>
+              <c:f>'Speed Tests'!$D$23:$D$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -11879,7 +13045,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$E$4</c:f>
+              <c:f>'Speed Tests'!$E$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -11926,7 +13092,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$23:$B$38</c:f>
+              <c:f>'Speed Tests'!$B$23:$B$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -11983,7 +13149,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$E$23:$E$38</c:f>
+              <c:f>'Speed Tests'!$E$23:$E$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -12050,7 +13216,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$F$4</c:f>
+              <c:f>'Speed Tests'!$F$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -12127,7 +13293,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$23:$B$38</c:f>
+              <c:f>'Speed Tests'!$B$23:$B$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -12184,7 +13350,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$F$23:$F$38</c:f>
+              <c:f>'Speed Tests'!$F$23:$F$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -12251,7 +13417,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$G$4</c:f>
+              <c:f>'Speed Tests'!$G$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -12284,7 +13450,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$23:$B$38</c:f>
+              <c:f>'Speed Tests'!$B$23:$B$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -12341,7 +13507,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$G$23:$G$31</c:f>
+              <c:f>'Speed Tests'!$G$23:$G$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -12387,7 +13553,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$H$4</c:f>
+              <c:f>'Speed Tests'!$H$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -12420,7 +13586,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$23:$B$38</c:f>
+              <c:f>'Speed Tests'!$B$23:$B$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -12477,7 +13643,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$H$23:$H$38</c:f>
+              <c:f>'Speed Tests'!$H$23:$H$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -12544,7 +13710,7 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$I$4</c:f>
+              <c:f>'Speed Tests'!$I$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -12581,7 +13747,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$23:$B$38</c:f>
+              <c:f>'Speed Tests'!$B$23:$B$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -12638,7 +13804,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$I$23:$I$38</c:f>
+              <c:f>'Speed Tests'!$I$23:$I$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -12705,7 +13871,7 @@
           <c:order val="7"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$J$4</c:f>
+              <c:f>'Speed Tests'!$J$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -12788,7 +13954,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$23:$B$38</c:f>
+              <c:f>'Speed Tests'!$B$23:$B$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -12845,7 +14011,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$J$23:$J$38</c:f>
+              <c:f>'Speed Tests'!$J$23:$J$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -13354,7 +14520,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$60</c:f>
+              <c:f>'Speed Tests'!$A$60</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -13375,7 +14541,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$59:$I$59</c:f>
+              <c:f>'Speed Tests'!$B$59:$I$59</c:f>
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
@@ -13407,7 +14573,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$60:$I$60</c:f>
+              <c:f>'Speed Tests'!$B$60:$I$60</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -13449,7 +14615,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$61</c:f>
+              <c:f>'Speed Tests'!$A$61</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -13470,7 +14636,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$59:$I$59</c:f>
+              <c:f>'Speed Tests'!$B$59:$I$59</c:f>
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
@@ -13502,7 +14668,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$61:$I$61</c:f>
+              <c:f>'Speed Tests'!$B$61:$I$61</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -13831,7 +14997,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$40:$L$40</c:f>
+              <c:f>'Speed Tests'!$B$40:$L$40</c:f>
               <c:strCache>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
@@ -13872,7 +15038,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$41:$L$41</c:f>
+              <c:f>'Speed Tests'!$B$41:$L$41</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -13933,7 +15099,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$40:$L$40</c:f>
+              <c:f>'Speed Tests'!$B$40:$L$40</c:f>
               <c:strCache>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
@@ -13974,7 +15140,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$42:$L$42</c:f>
+              <c:f>'Speed Tests'!$B$42:$L$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -14035,7 +15201,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$40:$L$40</c:f>
+              <c:f>'Speed Tests'!$B$40:$L$40</c:f>
               <c:strCache>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
@@ -14076,7 +15242,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$43:$L$43</c:f>
+              <c:f>'Speed Tests'!$B$43:$L$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -14382,7 +15548,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$40:$L$40</c:f>
+              <c:f>'Speed Tests'!$B$40:$L$40</c:f>
               <c:strCache>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
@@ -14423,7 +15589,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$41:$L$41</c:f>
+              <c:f>'Speed Tests'!$B$41:$L$41</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -14484,7 +15650,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$40:$L$40</c:f>
+              <c:f>'Speed Tests'!$B$40:$L$40</c:f>
               <c:strCache>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
@@ -14525,7 +15691,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$42:$L$42</c:f>
+              <c:f>'Speed Tests'!$B$42:$L$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -14586,7 +15752,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$40:$L$40</c:f>
+              <c:f>'Speed Tests'!$B$40:$L$40</c:f>
               <c:strCache>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
@@ -14627,7 +15793,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$43:$L$43</c:f>
+              <c:f>'Speed Tests'!$B$43:$L$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -14872,8 +16038,13 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-GB"/>
-              <a:t>Square Size</a:t>
+              <a:t>Circle</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> Speed - Pixel per second (p*s^-6)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -14909,178 +16080,136 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$4</c:f>
+              <c:f>'Speed Tests'!$A$85</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Four Way (Recursive)</c:v>
+                  <c:v>Stack</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="25400" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
               <a:noFill/>
-              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="poly"/>
-            <c:order val="2"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
-          <c:xVal>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Speed Tests'!$C$84:$F$84</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Four Way (Recursive)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Four Way (Linear)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Span Fill</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Walk Based</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
             <c:numRef>
-              <c:f>Sheet1!$A$5:$A$20</c:f>
+              <c:f>'Speed Tests'!$C$85:$F$85</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>5</c:v>
+                  <c:v>1.4583025050206109</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10</c:v>
+                  <c:v>1.4387176964429462</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15</c:v>
+                  <c:v>0.33687301259295122</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>125</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>250</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>400</c:v>
+                  <c:v>2.8075095071693155</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$C$5:$C$20</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>149</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>325</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>582</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>913</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1317</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2352</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3680</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
+          </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-3E45-445F-BDAF-0D000E30EF36}"/>
+              <c16:uniqueId val="{00000000-DE76-4C05-9057-AF62F2EFD271}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -15089,1184 +16218,127 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$4</c:f>
+              <c:f>'Speed Tests'!$A$86</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Four Way (Linear)</c:v>
+                  <c:v>Queue</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="25400" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
               <a:noFill/>
-              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="poly"/>
-            <c:order val="2"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
-          <c:xVal>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Speed Tests'!$C$84:$F$84</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Four Way (Recursive)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Four Way (Linear)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Span Fill</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Walk Based</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
             <c:numRef>
-              <c:f>Sheet1!$A$5:$A$20</c:f>
+              <c:f>'Speed Tests'!$C$86:$F$86</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>5</c:v>
+                  <c:v>1.5455025895782686</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10</c:v>
+                  <c:v>1.4581545759324428</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15</c:v>
+                  <c:v>0.35147071976905209</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>125</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>250</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>400</c:v>
+                  <c:v>2.7496861785959918</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$D$5:$D$20</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>146</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>331</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>574</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>896</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1300</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2289</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3563</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8792</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>15152</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>24574</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>33267</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>56608</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>83682</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>120171</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>215834</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
+          </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-3E45-445F-BDAF-0D000E30EF36}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$E$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Span Fill</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="poly"/>
-            <c:order val="2"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$A$5:$A$20</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>125</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>250</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>400</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$E$5:$E$20</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>99</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>168</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>249</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>345</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>593</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>911</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1983</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3498</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>5422</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>7729</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>13559</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>21126</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>30163</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>53488</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-3E45-445F-BDAF-0D000E30EF36}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$F$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Walk Based</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$A$5:$A$20</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>125</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>250</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>400</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$F$5:$F$20</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>1275</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1478</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2030</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2527</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2986</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4202</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>5884</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8977</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>16789</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>30270</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>44203</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>61639</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>108003</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>166962</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>238452</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>430454</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-3E45-445F-BDAF-0D000E30EF36}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$G$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Four Way (Recursive)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent5"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$A$5:$A$20</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>125</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>250</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>400</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$G$5:$G$20</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>165</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>380</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>667</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1047</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1504</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2678</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4194</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-3E45-445F-BDAF-0D000E30EF36}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$H$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Four Way (Linear)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent6"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent6"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="poly"/>
-            <c:order val="2"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$A$5:$A$20</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>125</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>250</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>400</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$H$5:$H$20</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>155</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>334</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>590</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>927</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1352</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2362</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3841</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8390</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>14836</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>23226</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>33418</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>60179</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>94604</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>131444</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>237285</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-3E45-445F-BDAF-0D000E30EF36}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="6"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$I$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Span Fill</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="60000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="60000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="poly"/>
-            <c:order val="2"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$A$5:$A$20</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>125</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>250</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>400</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$I$5:$I$20</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>95</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>170</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>246</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>343</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>599</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>910</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1987</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3479</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>5382</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>7719</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>13608</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>21314</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>30308</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>53522</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000009-3E45-445F-BDAF-0D000E30EF36}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="7"/>
-          <c:order val="7"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$J$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Walk Based</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2">
-                    <a:lumMod val="60000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent2">
-                    <a:lumMod val="60000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="poly"/>
-            <c:order val="2"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$A$5:$A$20</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>125</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>250</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>400</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$J$5:$J$20</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>737</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>901</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1211</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1626</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2422</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3067</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4861</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7449</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>15453</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>27114</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>43209</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>59390</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>116620</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>166097</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>238060</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>422658</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000A-3E45-445F-BDAF-0D000E30EF36}"/>
+              <c16:uniqueId val="{00000001-DE76-4C05-9057-AF62F2EFD271}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -16278,90 +16350,18 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="849464392"/>
-        <c:axId val="849463408"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="849464392"/>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="554097808"/>
+        <c:axId val="554096496"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="554097808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-GB"/>
-                  <a:t>Sqaure Length</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-GB" baseline="0"/>
-                  <a:t> (pixels)</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-GB"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -16371,8 +16371,8 @@
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -16399,12 +16399,15 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="849463408"/>
+        <c:crossAx val="554096496"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
       <c:valAx>
-        <c:axId val="849463408"/>
+        <c:axId val="554096496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16424,92 +16427,14 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-GB"/>
-                  <a:t>Time</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-GB" baseline="0"/>
-                  <a:t> (</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="el-GR" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                    <a:effectLst/>
-                  </a:rPr>
-                  <a:t>μ</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-GB" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                    <a:effectLst/>
-                  </a:rPr>
-                  <a:t>s)</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-GB"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
+          <a:ln>
+            <a:noFill/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -16533,9 +16458,9 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="849464392"/>
+        <c:crossAx val="554097808"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -16734,6 +16659,46 @@
 </file>
 
 <file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors13.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -19157,7 +19122,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style13.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -19673,8 +19638,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -19701,8 +19666,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -19803,7 +19768,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -19835,10 +19800,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -19878,22 +19843,23 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -19998,8 +19964,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -20131,19 +20097,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -20157,6 +20124,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -20176,8 +20154,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -20204,8 +20182,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -20306,6 +20284,509 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
       <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -22722,7 +23203,7 @@
 </file>
 
 <file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -22749,8 +23230,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -22851,7 +23332,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+      <a:ln w="28575" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -22883,10 +23364,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -22926,23 +23407,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -23047,8 +23527,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -23180,20 +23660,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -23207,17 +23686,6 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -23499,16 +23967,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>254453</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>40821</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>662667</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>54428</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>322488</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>81643</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1152524</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>176893</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -23528,6 +23996,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>68035</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>176893</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>353785</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>78921</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E5B83D5-A8C9-415D-BA4C-844EEB8E008A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -23990,10 +24494,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83AD4CD4-0469-4BD9-B9A9-48BE844E1797}">
-  <dimension ref="A1:L66"/>
+  <dimension ref="A1:L86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+    <sheetView tabSelected="1" topLeftCell="A44" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H86" sqref="H86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25144,152 +25648,152 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" s="3"/>
-      <c r="B40" s="3" t="s">
+      <c r="A40" s="10"/>
+      <c r="B40" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="C40" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D40" s="3" t="s">
+      <c r="D40" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E40" s="3" t="s">
+      <c r="E40" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="F40" s="3" t="s">
+      <c r="F40" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="G40" s="3" t="s">
+      <c r="G40" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="H40" s="3" t="s">
+      <c r="H40" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="I40" s="3" t="s">
+      <c r="I40" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="J40" s="3" t="s">
+      <c r="J40" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="K40" s="3" t="s">
+      <c r="K40" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="L40" s="3" t="s">
+      <c r="L40" s="10" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A41" s="3" t="s">
+      <c r="A41" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B41" s="3">
+      <c r="B41" s="10">
         <v>8518</v>
       </c>
-      <c r="C41" s="3">
+      <c r="C41" s="26">
         <v>14085</v>
       </c>
-      <c r="D41" s="3">
+      <c r="D41" s="4">
         <v>12404</v>
       </c>
-      <c r="E41" s="3">
+      <c r="E41" s="4">
         <v>12027</v>
       </c>
-      <c r="F41" s="3">
+      <c r="F41" s="4">
         <v>4374</v>
       </c>
-      <c r="G41" s="3">
+      <c r="G41" s="4">
         <v>113882</v>
       </c>
-      <c r="H41" s="3">
+      <c r="H41" s="4">
         <v>15345</v>
       </c>
-      <c r="I41" s="3">
+      <c r="I41" s="4">
         <v>12811</v>
       </c>
-      <c r="J41" s="3">
+      <c r="J41" s="4">
         <v>12970</v>
       </c>
-      <c r="K41" s="3">
+      <c r="K41" s="4">
         <v>4527</v>
       </c>
-      <c r="L41" s="3">
+      <c r="L41" s="10">
         <v>114746</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+      <c r="A42" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B42" s="24">
+      <c r="B42" s="17">
         <v>2304</v>
       </c>
-      <c r="C42">
+      <c r="C42" s="6">
         <v>2815</v>
       </c>
-      <c r="D42" s="24">
+      <c r="D42" s="25">
         <v>4541</v>
       </c>
-      <c r="E42" s="24">
+      <c r="E42" s="25">
         <v>5975</v>
       </c>
-      <c r="F42" s="24">
+      <c r="F42" s="25">
         <v>5468</v>
       </c>
-      <c r="G42">
+      <c r="G42" s="5">
         <v>17709</v>
       </c>
-      <c r="H42" s="24">
+      <c r="H42" s="25">
         <v>2956</v>
       </c>
-      <c r="I42" s="24">
+      <c r="I42" s="25">
         <v>4769</v>
       </c>
-      <c r="J42" s="24">
+      <c r="J42" s="25">
         <v>5996</v>
       </c>
-      <c r="K42" s="24">
+      <c r="K42" s="25">
         <v>5349</v>
       </c>
-      <c r="L42">
+      <c r="L42" s="11">
         <v>13472</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+      <c r="A43" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B43" s="24">
+      <c r="B43" s="16">
         <v>4560</v>
       </c>
-      <c r="C43" s="24">
+      <c r="C43" s="27">
         <v>3387</v>
       </c>
-      <c r="D43" s="24">
+      <c r="D43" s="22">
         <v>9315</v>
       </c>
-      <c r="E43" s="24">
+      <c r="E43" s="22">
         <v>11524</v>
       </c>
-      <c r="F43" s="24">
+      <c r="F43" s="22">
         <v>10781</v>
       </c>
-      <c r="G43" s="24">
+      <c r="G43" s="22">
         <v>19442</v>
       </c>
-      <c r="H43" s="24">
+      <c r="H43" s="22">
         <v>3201</v>
       </c>
-      <c r="I43" s="24">
+      <c r="I43" s="22">
         <v>8705</v>
       </c>
-      <c r="J43" s="24">
+      <c r="J43" s="22">
         <v>11390</v>
       </c>
-      <c r="K43" s="24">
+      <c r="K43" s="22">
         <v>9655</v>
       </c>
-      <c r="L43">
+      <c r="L43" s="12">
         <v>18774</v>
       </c>
     </row>
@@ -25725,6 +26229,80 @@
       <c r="D66" s="6"/>
       <c r="E66" s="6"/>
       <c r="F66" s="6"/>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A84" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B84" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D84" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E84" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="F84" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="G84" s="6"/>
+      <c r="H84" s="6"/>
+      <c r="I84" s="6"/>
+      <c r="J84" s="6"/>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>27</v>
+      </c>
+      <c r="B85" s="10">
+        <f>SUM(B23:B38)</f>
+        <v>324229</v>
+      </c>
+      <c r="C85" s="21">
+        <f>SUM(SUM(C23:C31)/SUM(B23:B31))</f>
+        <v>1.4583025050206109</v>
+      </c>
+      <c r="D85" s="10" cm="1">
+        <f t="array" ref="D85">SUM(D23:D38/$B85)</f>
+        <v>1.4387176964429462</v>
+      </c>
+      <c r="E85" s="10" cm="1">
+        <f t="array" ref="E85">SUM(E23:E38/$B85)</f>
+        <v>0.33687301259295122</v>
+      </c>
+      <c r="F85" s="10" cm="1">
+        <f t="array" ref="F85">SUM(F23:F38/$B85)</f>
+        <v>2.8075095071693155</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A86" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B86" s="3">
+        <f>SUM(B24:B39)</f>
+        <v>324208</v>
+      </c>
+      <c r="C86" s="8">
+        <f>SUM(SUM(G23:G31)/SUM(B23:B31))</f>
+        <v>1.5455025895782686</v>
+      </c>
+      <c r="D86" s="3" cm="1">
+        <f t="array" ref="D86">SUM(H23:H38/$B85)</f>
+        <v>1.4581545759324428</v>
+      </c>
+      <c r="E86" s="24" cm="1">
+        <f t="array" ref="E86">SUM(I23:I38/$B85)</f>
+        <v>0.35147071976905209</v>
+      </c>
+      <c r="F86" s="3" cm="1">
+        <f t="array" ref="F86">SUM(J23:J38/$B85)</f>
+        <v>2.7496861785959918</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>

--- a/Test Results.xlsx
+++ b/Test Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\CSC3095-Dissertation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FB94F82-B9A2-4217-B8A9-55F972726A25}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1DC05E3-94AC-4682-AA2C-153E8CE541C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{43AB4C6B-370F-4888-996C-F8629A52645F}"/>
+    <workbookView minimized="1" xWindow="9600" yWindow="3360" windowWidth="28800" windowHeight="15435" xr2:uid="{43AB4C6B-370F-4888-996C-F8629A52645F}"/>
   </bookViews>
   <sheets>
     <sheet name="Speed Tests" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="30">
   <si>
     <t>Span Fill</t>
   </si>
@@ -144,6 +144,9 @@
   </si>
   <si>
     <t>Queue</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -382,7 +385,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -419,6 +422,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2198,6 +2202,638 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-GB"/>
+              <a:t>Town</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> Speed - Pixel per second (p*s^-6)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Speed Tests'!$A$93</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Stack</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Speed Tests'!$C$84:$G$84</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Four Way (Recursive)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Four Way (Linear)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Span Fill</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Walk Based</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Brute Force</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Speed Tests'!$C$93:$G$93</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.45621037802301</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.4119511622446583</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.51350082178915235</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13.369570321671754</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.6535571730453158</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-46F7-479C-B27E-64C2ECB8F1D3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Speed Tests'!$A$94</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Queue</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Speed Tests'!$C$84:$G$84</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Four Way (Recursive)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Four Way (Linear)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Span Fill</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Walk Based</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Brute Force</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Speed Tests'!$C$94:$G$94</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.5039915473115755</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.522657900915708</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.53146278469124208</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13.471002582765907</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.8014792204742898</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-46F7-479C-B27E-64C2ECB8F1D3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="554097808"/>
+        <c:axId val="554096496"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="554097808"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="554096496"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="554096496"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Pixels per microsecond (p*s-^6</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="554097808"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
               <a:t>Square Size</a:t>
             </a:r>
           </a:p>
@@ -3939,7 +4575,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -5712,7 +6348,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -7397,7 +8033,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -9320,10 +9956,10 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'Speed Tests'!$A$5:$A$20</c:f>
+              <c:f>'Speed Tests'!$A$5:$A$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>5</c:v>
                 </c:pt>
@@ -9347,40 +9983,16 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>125</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>250</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>400</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Speed Tests'!$C$5:$C$20</c:f>
+              <c:f>'Speed Tests'!$C$5:$C$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>38</c:v>
                 </c:pt>
@@ -9404,30 +10016,6 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>3680</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9819,6 +10407,21 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>'Speed Tests'!$A$5:$A$20</c:f>
@@ -10217,6 +10820,22 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:legendEntry>
+        <c:idx val="4"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="5"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="6"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="7"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10398,31 +11017,37 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Speed Tests'!$C$45:$J$45</c:f>
+              <c:f>'Speed Tests'!$C$45:$L$45</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
+                  <c:v>Brute Force</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>Four Way (Recursive)</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>Four Way (Linear)</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>Span Fill</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>Walk Based</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
+                  <c:v>Brute Force</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>Four Way (Recursive)</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="7">
                   <c:v>Four Way (Linear)</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
                   <c:v>Span Fill</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="9">
                   <c:v>Walk Based</c:v>
                 </c:pt>
               </c:strCache>
@@ -10430,32 +11055,38 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Speed Tests'!$C$46:$J$46</c:f>
+              <c:f>'Speed Tests'!$C$46:$L$46</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>1.4583025050206109</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>1.4387176964429462</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>0.33687301259295122</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>2.8075095071693155</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>1.5455025895782686</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="7">
                   <c:v>1.4581545759324428</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
                   <c:v>0.35147071976905209</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="9">
                   <c:v>2.7496861785959918</c:v>
                 </c:pt>
               </c:numCache>
@@ -10493,31 +11124,37 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Speed Tests'!$C$45:$J$45</c:f>
+              <c:f>'Speed Tests'!$C$45:$L$45</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
+                  <c:v>Brute Force</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>Four Way (Recursive)</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>Four Way (Linear)</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>Span Fill</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>Walk Based</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
+                  <c:v>Brute Force</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>Four Way (Recursive)</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="7">
                   <c:v>Four Way (Linear)</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
                   <c:v>Span Fill</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="9">
                   <c:v>Walk Based</c:v>
                 </c:pt>
               </c:strCache>
@@ -10525,32 +11162,38 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Speed Tests'!$C$47:$J$47</c:f>
+              <c:f>'Speed Tests'!$C$47:$L$47</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>1.467607843137255</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>1.3746501060284761</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>0.33786610118146015</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>2.7291875189336565</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>1.6746666666666667</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="7">
                   <c:v>1.4855789154801577</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
                   <c:v>0.33868039987882459</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="9">
                   <c:v>2.6922144804604664</c:v>
                 </c:pt>
               </c:numCache>
@@ -10588,31 +11231,37 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Speed Tests'!$C$45:$J$45</c:f>
+              <c:f>'Speed Tests'!$C$45:$L$45</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
+                  <c:v>Brute Force</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>Four Way (Recursive)</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>Four Way (Linear)</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>Span Fill</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>Walk Based</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
+                  <c:v>Brute Force</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>Four Way (Recursive)</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="7">
                   <c:v>Four Way (Linear)</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
                   <c:v>Span Fill</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="9">
                   <c:v>Walk Based</c:v>
                 </c:pt>
               </c:strCache>
@@ -10620,32 +11269,38 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Speed Tests'!$C$48:$J$48</c:f>
+              <c:f>'Speed Tests'!$C$48:$L$48</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
+                  <c:v>1.6535571730453158</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>1.45621037802301</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>1.4119511622446583</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>0.51350082178915235</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>13.369570321671754</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
+                  <c:v>1.8014792204742898</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>1.5039915473115755</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="7">
                   <c:v>1.522657900915708</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
                   <c:v>0.53146278469124208</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="9">
                   <c:v>13.471002582765907</c:v>
                 </c:pt>
               </c:numCache>
@@ -10654,6 +11309,220 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-56C8-47C3-93DD-8C28E1259749}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Speed Tests'!$A$49</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>25% Checkered</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Speed Tests'!$C$45:$L$45</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>Brute Force</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Four Way (Recursive)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Four Way (Linear)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Span Fill</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Walk Based</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Brute Force</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Four Way (Recursive)</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Four Way (Linear)</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Span Fill</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Walk Based</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Speed Tests'!$C$49:$L$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.2217881944444444</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.9709201388888888</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.5933159722222223</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.3732638888888888</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.686197916666667</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.2829861111111112</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.0698784722222223</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.6024305555555554</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.3216145833333335</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.8472222222222223</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-37E6-4FEF-A648-B739BC8181DB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Speed Tests'!$A$50</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>50% Checkered</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Speed Tests'!$C$45:$L$45</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>Brute Force</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Four Way (Recursive)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Four Way (Linear)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Span Fill</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Walk Based</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Brute Force</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Four Way (Recursive)</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Four Way (Linear)</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Span Fill</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Walk Based</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Speed Tests'!$C$50:$L$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.74276315789473679</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0427631578947367</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.5271929824561403</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.3642543859649123</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.2635964912280704</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.70197368421052631</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.9089912280701755</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.4978070175438596</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.1173245614035086</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.117105263157895</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-37E6-4FEF-A648-B739BC8181DB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -12574,6 +13443,18 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:legendEntry>
+        <c:idx val="8"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="9"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="10"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -15487,557 +16368,6 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-GB"/>
-              <a:t>Practise</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-GB" baseline="0"/>
-              <a:t> Town 100x100</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-GB"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="bar"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Speed Tests'!$B$40:$L$40</c:f>
-              <c:strCache>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>No. Pixels</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Brute Force</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Four Way (Recursive)</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Four Way (Linear)</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Span Fill</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Walk Based</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Brute Force</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Four Way (Recursive)</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Four Way (Linear)</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Span Fill</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Walk Based</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Speed Tests'!$B$41:$L$41</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>8518</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>14085</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>12404</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>12027</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4374</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>113882</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>15345</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12811</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>12970</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4527</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>114746</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-16CE-4C5F-B93B-C78BB9E98B7B}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Speed Tests'!$B$40:$L$40</c:f>
-              <c:strCache>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>No. Pixels</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Brute Force</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Four Way (Recursive)</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Four Way (Linear)</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Span Fill</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Walk Based</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Brute Force</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Four Way (Recursive)</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Four Way (Linear)</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Span Fill</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Walk Based</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Speed Tests'!$B$42:$L$42</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>2304</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2815</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4541</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5975</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5468</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>17709</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2956</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4769</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5996</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>5349</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>13472</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-16CE-4C5F-B93B-C78BB9E98B7B}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Speed Tests'!$B$40:$L$40</c:f>
-              <c:strCache>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>No. Pixels</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Brute Force</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Four Way (Recursive)</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Four Way (Linear)</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Span Fill</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Walk Based</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Brute Force</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Four Way (Recursive)</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Four Way (Linear)</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Span Fill</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Walk Based</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Speed Tests'!$B$43:$L$43</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>4560</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3387</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>9315</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>11524</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>10781</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>19442</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3201</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8705</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>11390</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9655</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>18774</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-16CE-4C5F-B93B-C78BB9E98B7B}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="182"/>
-        <c:axId val="554757192"/>
-        <c:axId val="554756864"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="554757192"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="554756864"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="554756864"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="554757192"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-GB"/>
               <a:t>Circle</a:t>
             </a:r>
             <a:r>
@@ -16168,9 +16498,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Speed Tests'!$C$84:$F$84</c:f>
+              <c:f>'Speed Tests'!$C$84:$G$84</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>Four Way (Recursive)</c:v>
                 </c:pt>
@@ -16182,16 +16512,19 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>Walk Based</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Brute Force</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Speed Tests'!$C$85:$F$85</c:f>
+              <c:f>'Speed Tests'!$C$85:$G$85</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>1.4583025050206109</c:v>
                 </c:pt>
@@ -16203,6 +16536,9 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>2.8075095071693155</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.79181689484901108</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16297,9 +16633,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Speed Tests'!$C$84:$F$84</c:f>
+              <c:f>'Speed Tests'!$C$84:$G$84</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>Four Way (Recursive)</c:v>
                 </c:pt>
@@ -16311,16 +16647,19 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>Walk Based</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Brute Force</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Speed Tests'!$C$86:$F$86</c:f>
+              <c:f>'Speed Tests'!$C$86:$G$86</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>1.5455025895782686</c:v>
                 </c:pt>
@@ -16332,6 +16671,9 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>2.7496861785959918</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.81647275822928489</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16339,6 +16681,553 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-DE76-4C05-9057-AF62F2EFD271}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="554097808"/>
+        <c:axId val="554096496"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="554097808"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="554096496"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="554096496"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="554097808"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Square</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> Speed - Pixel per second (p*s^-6)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Speed Tests'!$A$89</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Stack</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Speed Tests'!$C$84:$G$84</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Four Way (Recursive)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Four Way (Linear)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Span Fill</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Walk Based</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Brute Force</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Speed Tests'!$C$89:$G$89</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.467607843137255</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.3746501060284761</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.33786610118146015</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.7291875189336565</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.69143411087549222</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4550-48F0-B28C-CFF3B3D84635}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Speed Tests'!$A$90</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Queue</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Speed Tests'!$C$84:$G$84</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Four Way (Recursive)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Four Way (Linear)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Span Fill</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Walk Based</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Brute Force</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Speed Tests'!$C$90:$G$90</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.6746666666666667</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.4855789154801577</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.33868039987882459</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.6922144804604664</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.67194668282338688</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4550-48F0-B28C-CFF3B3D84635}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -16738,6 +17627,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors14.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -17575,7 +18504,7 @@
 </file>
 
 <file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -17602,8 +18531,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -17704,6 +18633,509 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
       <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -18090,7 +19522,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -18606,7 +20038,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style13.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -19122,7 +20554,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style14.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -22698,7 +24130,7 @@
 </file>
 
 <file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -22902,23 +24334,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -23023,8 +24454,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -23156,20 +24587,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -23747,8 +25177,8 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>178253</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>65314</xdr:rowOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>448235</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
@@ -23783,16 +25213,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>550408</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>57831</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>90967</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>113860</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>242888</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>25174</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>336176</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>78441</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -23897,12 +25327,12 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>87558</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>16921</xdr:rowOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>145677</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>369167</xdr:colOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>324971</xdr:colOff>
       <xdr:row>75</xdr:row>
       <xdr:rowOff>93121</xdr:rowOff>
     </xdr:to>
@@ -23931,23 +25361,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>102053</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>125186</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>662667</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>132869</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>170088</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>119743</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1152524</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>64834</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
+        <xdr:cNvPr id="10" name="Chart 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1156116-CB7F-4E3C-B14D-580A5AB1D77B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7197E792-421F-46BD-AFD0-BDF423707CEB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23967,23 +25397,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>662667</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>54428</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>56830</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>165687</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>1152524</xdr:colOff>
-      <xdr:row>79</xdr:row>
-      <xdr:rowOff>176893</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>353785</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>67715</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="10" name="Chart 9">
+        <xdr:cNvPr id="5" name="Chart 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7197E792-421F-46BD-AFD0-BDF423707CEB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E5B83D5-A8C9-415D-BA4C-844EEB8E008A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24003,27 +25433,29 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>68035</xdr:colOff>
-      <xdr:row>75</xdr:row>
-      <xdr:rowOff>176893</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>291353</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>353785</xdr:colOff>
-      <xdr:row>97</xdr:row>
-      <xdr:rowOff>78921</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>588308</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>92528</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4">
+        <xdr:cNvPr id="15" name="Chart 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E5B83D5-A8C9-415D-BA4C-844EEB8E008A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{374DA74B-8A73-474E-B72B-5A130C806A54}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -24032,6 +25464,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>280147</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>22412</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>577102</xdr:colOff>
+      <xdr:row>141</xdr:row>
+      <xdr:rowOff>114940</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="16" name="Chart 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B10021B-076B-491F-B64B-0CA9E462001D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -24494,10 +25964,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83AD4CD4-0469-4BD9-B9A9-48BE844E1797}">
-  <dimension ref="A1:L86"/>
+  <dimension ref="A1:L94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H86" sqref="H86"/>
+    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25805,27 +27275,33 @@
         <v>8</v>
       </c>
       <c r="C45" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D45" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D45" s="10" t="s">
+      <c r="E45" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="E45" s="10" t="s">
+      <c r="F45" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="F45" s="10" t="s">
+      <c r="G45" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="G45" s="3" t="s">
+      <c r="H45" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I45" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H45" s="10" t="s">
+      <c r="J45" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="I45" s="10" t="s">
+      <c r="K45" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="J45" s="10" t="s">
+      <c r="L45" s="10" t="s">
         <v>4</v>
       </c>
     </row>
@@ -25837,36 +27313,42 @@
         <f>SUM(B23:B38)</f>
         <v>324229</v>
       </c>
-      <c r="C46" s="21">
+      <c r="C46" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="D46" s="21">
         <f>SUM(SUM(C23:C31)/SUM(B23:B31))</f>
         <v>1.4583025050206109</v>
       </c>
-      <c r="D46" s="10" cm="1">
-        <f t="array" ref="D46">SUM(D23:D38/$B46)</f>
+      <c r="E46" s="10" cm="1">
+        <f t="array" ref="E46">SUM(D23:D38/$B46)</f>
         <v>1.4387176964429462</v>
       </c>
-      <c r="E46" s="10" cm="1">
-        <f t="array" ref="E46">SUM(E23:E38/$B46)</f>
+      <c r="F46" s="10" cm="1">
+        <f t="array" ref="F46">SUM(E23:E38/$B46)</f>
         <v>0.33687301259295122</v>
       </c>
-      <c r="F46" s="10" cm="1">
-        <f t="array" ref="F46">SUM(F23:F38/$B46)</f>
+      <c r="G46" s="10" cm="1">
+        <f t="array" ref="G46">SUM(F23:F38/$B46)</f>
         <v>2.8075095071693155</v>
       </c>
-      <c r="G46">
+      <c r="H46" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I46">
         <f>SUM(SUM(G23:G31)/SUM(B23:B31))</f>
         <v>1.5455025895782686</v>
       </c>
-      <c r="H46" s="10" cm="1">
-        <f t="array" ref="H46">SUM(H23:H38/$B46)</f>
+      <c r="J46" s="10" cm="1">
+        <f t="array" ref="J46">SUM(H23:H38/$B46)</f>
         <v>1.4581545759324428</v>
       </c>
-      <c r="I46" s="4" cm="1">
-        <f t="array" ref="I46">SUM(I23:I38/$B46)</f>
+      <c r="K46" s="10" cm="1">
+        <f t="array" ref="K46">SUM(I23:I38/$B46)</f>
         <v>0.35147071976905209</v>
       </c>
-      <c r="J46" s="10" cm="1">
-        <f t="array" ref="J46">SUM(J23:J38/$B46)</f>
+      <c r="L46" s="10" cm="1">
+        <f t="array" ref="L46">SUM(J23:J38/$B46)</f>
         <v>2.7496861785959918</v>
       </c>
     </row>
@@ -25878,36 +27360,42 @@
         <f>SUM(B5:B20)</f>
         <v>412625</v>
       </c>
-      <c r="C47" s="23">
+      <c r="C47" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="D47" s="23">
         <f>SUM(SUM(C5:C12)/SUM(B5:B12))</f>
         <v>1.467607843137255</v>
       </c>
-      <c r="D47" s="11" cm="1">
-        <f t="array" ref="D47">SUM(D5:D20/$B47)</f>
+      <c r="E47" s="11" cm="1">
+        <f t="array" ref="E47">SUM(D5:D20/$B47)</f>
         <v>1.3746501060284761</v>
       </c>
-      <c r="E47" s="11" cm="1">
-        <f t="array" ref="E47">SUM(E5:E20/$B47)</f>
+      <c r="F47" s="11" cm="1">
+        <f t="array" ref="F47">SUM(E5:E20/$B47)</f>
         <v>0.33786610118146015</v>
       </c>
-      <c r="F47" s="11" cm="1">
-        <f t="array" ref="F47">SUM(F5:F20/$B47)</f>
+      <c r="G47" s="11" cm="1">
+        <f t="array" ref="G47">SUM(F5:F20/$B47)</f>
         <v>2.7291875189336565</v>
       </c>
-      <c r="G47">
+      <c r="H47" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="I47">
         <f>SUM(SUM(G5:G12)/SUM(B5:B12))</f>
         <v>1.6746666666666667</v>
       </c>
-      <c r="H47" s="11" cm="1">
-        <f t="array" ref="H47">SUM(H5:H20/$B47)</f>
+      <c r="J47" s="11" cm="1">
+        <f t="array" ref="J47">SUM(H5:H20/$B47)</f>
         <v>1.4855789154801577</v>
       </c>
-      <c r="I47" s="5" cm="1">
-        <f t="array" ref="I47">SUM(I5:I20/$B47)</f>
+      <c r="K47" s="11" cm="1">
+        <f t="array" ref="K47">SUM(I5:I20/$B47)</f>
         <v>0.33868039987882459</v>
       </c>
-      <c r="J47" s="11" cm="1">
-        <f t="array" ref="J47">SUM(J5:J20/$B47)</f>
+      <c r="L47" s="11" cm="1">
+        <f t="array" ref="L47">SUM(J5:J20/$B47)</f>
         <v>2.6922144804604664</v>
       </c>
     </row>
@@ -25919,44 +27407,148 @@
         <v>8518</v>
       </c>
       <c r="C48" s="20">
+        <f>SUM(C41/B48)</f>
+        <v>1.6535571730453158</v>
+      </c>
+      <c r="D48" s="20">
         <f>SUM(D41/B48)</f>
         <v>1.45621037802301</v>
       </c>
-      <c r="D48" s="12">
+      <c r="E48" s="20">
         <f>SUM(E41/B48)</f>
         <v>1.4119511622446583</v>
       </c>
-      <c r="E48" s="12">
+      <c r="F48" s="20">
         <f>SUM(F41/B48)</f>
         <v>0.51350082178915235</v>
       </c>
-      <c r="F48" s="12">
+      <c r="G48" s="20">
         <f>SUM(G41/B48)</f>
         <v>13.369570321671754</v>
       </c>
-      <c r="G48" s="12">
+      <c r="H48" s="12">
+        <f>SUM(H41/B48)</f>
+        <v>1.8014792204742898</v>
+      </c>
+      <c r="I48" s="20">
         <f>SUM(I41/B48)</f>
         <v>1.5039915473115755</v>
       </c>
-      <c r="H48" s="12">
+      <c r="J48" s="20">
         <f>SUM(J41/B48)</f>
         <v>1.522657900915708</v>
       </c>
-      <c r="I48" s="7">
+      <c r="K48" s="20">
         <f>SUM(K41/B48)</f>
         <v>0.53146278469124208</v>
       </c>
-      <c r="J48" s="12">
+      <c r="L48" s="20">
         <f>SUM(L41/B48)</f>
         <v>13.471002582765907</v>
       </c>
     </row>
-    <row r="52" spans="1:10" ht="21" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A49" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B49" s="17">
+        <v>2304</v>
+      </c>
+      <c r="C49" s="20">
+        <f>SUM(C42/B49)</f>
+        <v>1.2217881944444444</v>
+      </c>
+      <c r="D49" s="20">
+        <f>SUM(D42/B49)</f>
+        <v>1.9709201388888888</v>
+      </c>
+      <c r="E49" s="20">
+        <f t="shared" ref="E49:E50" si="2">SUM(E42/B49)</f>
+        <v>2.5933159722222223</v>
+      </c>
+      <c r="F49" s="20">
+        <f t="shared" ref="F49:F50" si="3">SUM(F42/B49)</f>
+        <v>2.3732638888888888</v>
+      </c>
+      <c r="G49" s="20">
+        <f t="shared" ref="G49:G50" si="4">SUM(G42/B49)</f>
+        <v>7.686197916666667</v>
+      </c>
+      <c r="H49" s="12">
+        <f t="shared" ref="H49:H50" si="5">SUM(H42/B49)</f>
+        <v>1.2829861111111112</v>
+      </c>
+      <c r="I49" s="20">
+        <f t="shared" ref="I49:I50" si="6">SUM(I42/B49)</f>
+        <v>2.0698784722222223</v>
+      </c>
+      <c r="J49" s="20">
+        <f t="shared" ref="J49:J50" si="7">SUM(J42/B49)</f>
+        <v>2.6024305555555554</v>
+      </c>
+      <c r="K49" s="20">
+        <f>SUM(K42/B49)</f>
+        <v>2.3216145833333335</v>
+      </c>
+      <c r="L49" s="20">
+        <f t="shared" ref="L49:L50" si="8">SUM(L42/B49)</f>
+        <v>5.8472222222222223</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A50" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B50" s="16">
+        <v>4560</v>
+      </c>
+      <c r="C50" s="20">
+        <f>SUM(C43/B50)</f>
+        <v>0.74276315789473679</v>
+      </c>
+      <c r="D50" s="20">
+        <f t="shared" ref="D50" si="9">SUM(D43/B50)</f>
+        <v>2.0427631578947367</v>
+      </c>
+      <c r="E50" s="20">
+        <f t="shared" si="2"/>
+        <v>2.5271929824561403</v>
+      </c>
+      <c r="F50" s="20">
+        <f t="shared" si="3"/>
+        <v>2.3642543859649123</v>
+      </c>
+      <c r="G50" s="20">
+        <f t="shared" si="4"/>
+        <v>4.2635964912280704</v>
+      </c>
+      <c r="H50" s="12">
+        <f t="shared" si="5"/>
+        <v>0.70197368421052631</v>
+      </c>
+      <c r="I50" s="20">
+        <f t="shared" si="6"/>
+        <v>1.9089912280701755</v>
+      </c>
+      <c r="J50" s="20">
+        <f t="shared" si="7"/>
+        <v>2.4978070175438596</v>
+      </c>
+      <c r="K50" s="20">
+        <f t="shared" ref="K50" si="10">SUM(K43/B50)</f>
+        <v>2.1173245614035086</v>
+      </c>
+      <c r="L50" s="20">
+        <f t="shared" si="8"/>
+        <v>4.117105263157895</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" ht="21" x14ac:dyDescent="0.35">
       <c r="A52" s="18" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>2</v>
       </c>
@@ -25985,7 +27577,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="10">
         <v>5</v>
       </c>
@@ -26017,12 +27609,12 @@
         <v>5.9869719564344733E-4</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="11">
         <v>75</v>
       </c>
       <c r="B55" s="11">
-        <f t="shared" ref="B55" si="2">SUM(A55 * 4 - 4)</f>
+        <f t="shared" ref="B55" si="11">SUM(A55 * 4 - 4)</f>
         <v>296</v>
       </c>
       <c r="C55" s="11">
@@ -26049,12 +27641,12 @@
         <v>2.1479045215075407E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="12">
         <v>400</v>
       </c>
       <c r="B56" s="12">
-        <f t="shared" ref="B56" si="3">SUM(A56 * 4 - 4)</f>
+        <f t="shared" ref="B56" si="12">SUM(A56 * 4 - 4)</f>
         <v>1596</v>
       </c>
       <c r="C56" s="12">
@@ -26075,7 +27667,7 @@
       <c r="I56" s="12"/>
       <c r="J56" s="12"/>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="6"/>
       <c r="B57" s="6"/>
       <c r="C57" s="6"/>
@@ -26083,7 +27675,7 @@
       <c r="E57" s="6"/>
       <c r="F57" s="6"/>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="6" t="s">
         <v>23</v>
       </c>
@@ -26093,7 +27685,7 @@
       <c r="E58" s="6"/>
       <c r="F58" s="6"/>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="10"/>
       <c r="B59" s="10" t="s">
         <v>20</v>
@@ -26120,7 +27712,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="10" t="s">
         <v>21</v>
       </c>
@@ -26155,7 +27747,7 @@
         <v>891528</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="12" t="s">
         <v>7</v>
       </c>
@@ -26190,7 +27782,7 @@
         <v>1110875</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" s="6"/>
       <c r="B62" s="6"/>
       <c r="C62" s="6"/>
@@ -26198,7 +27790,7 @@
       <c r="E62" s="6"/>
       <c r="F62" s="6"/>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="6"/>
       <c r="B63" s="6"/>
       <c r="C63" s="6"/>
@@ -26206,7 +27798,7 @@
       <c r="E63" s="6"/>
       <c r="F63" s="6"/>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" s="6"/>
       <c r="B64" s="6"/>
       <c r="C64" s="6"/>
@@ -26249,7 +27841,9 @@
       <c r="F84" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="G84" s="6"/>
+      <c r="G84" s="17" t="s">
+        <v>20</v>
+      </c>
       <c r="H84" s="6"/>
       <c r="I84" s="6"/>
       <c r="J84" s="6"/>
@@ -26278,6 +27872,10 @@
         <f t="array" ref="F85">SUM(F23:F38/$B85)</f>
         <v>2.8075095071693155</v>
       </c>
+      <c r="G85" s="10">
+        <f>SUM(B60/$B85)</f>
+        <v>0.79181689484901108</v>
+      </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" s="24" t="s">
@@ -26302,6 +27900,172 @@
       <c r="F86" s="3" cm="1">
         <f t="array" ref="F86">SUM(J23:J38/$B85)</f>
         <v>2.7496861785959918</v>
+      </c>
+      <c r="G86" s="10">
+        <f>SUM(F60/$B86)</f>
+        <v>0.81647275822928489</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A88" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B88" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D88" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E88" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="F88" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="G88" s="28" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>27</v>
+      </c>
+      <c r="B89" s="10">
+        <f>SUM(B5:B20)</f>
+        <v>412625</v>
+      </c>
+      <c r="C89" s="21">
+        <f>SUM(SUM(C5:C12)/SUM(B5:B12))</f>
+        <v>1.467607843137255</v>
+      </c>
+      <c r="D89" s="11" cm="1">
+        <f t="array" ref="D89">SUM(D5:D20/$B89)</f>
+        <v>1.3746501060284761</v>
+      </c>
+      <c r="E89" s="11" cm="1">
+        <f t="array" ref="E89">SUM(E5:E20/$B89)</f>
+        <v>0.33786610118146015</v>
+      </c>
+      <c r="F89" s="11" cm="1">
+        <f t="array" ref="F89">SUM(F5:F20/$B89)</f>
+        <v>2.7291875189336565</v>
+      </c>
+      <c r="G89" s="10">
+        <f>SUM(B61/$B89)</f>
+        <v>0.69143411087549222</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A90" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B90" s="3">
+        <f>SUM(B5:B20)</f>
+        <v>412625</v>
+      </c>
+      <c r="C90" s="8">
+        <f>SUM(SUM(G5:G12)/SUM(B5:B12))</f>
+        <v>1.6746666666666667</v>
+      </c>
+      <c r="D90" s="12" cm="1">
+        <f t="array" ref="D90">SUM(H5:H20/$B90)</f>
+        <v>1.4855789154801577</v>
+      </c>
+      <c r="E90" s="12" cm="1">
+        <f t="array" ref="E90">SUM(I5:I20/$B90)</f>
+        <v>0.33868039987882459</v>
+      </c>
+      <c r="F90" s="12" cm="1">
+        <f t="array" ref="F90">SUM(J5:J20/$B90)</f>
+        <v>2.6922144804604664</v>
+      </c>
+      <c r="G90" s="3">
+        <f>SUM(F61/$B90)</f>
+        <v>0.67194668282338688</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A92" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B92" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D92" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E92" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="F92" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="G92" s="28" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>27</v>
+      </c>
+      <c r="B93" s="10">
+        <f>SUM(B48)</f>
+        <v>8518</v>
+      </c>
+      <c r="C93" s="21">
+        <f>D48</f>
+        <v>1.45621037802301</v>
+      </c>
+      <c r="D93" s="21">
+        <f t="shared" ref="D93:F93" si="13">E48</f>
+        <v>1.4119511622446583</v>
+      </c>
+      <c r="E93" s="21">
+        <f t="shared" si="13"/>
+        <v>0.51350082178915235</v>
+      </c>
+      <c r="F93" s="21">
+        <f t="shared" si="13"/>
+        <v>13.369570321671754</v>
+      </c>
+      <c r="G93" s="10">
+        <f>C48</f>
+        <v>1.6535571730453158</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A94" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B94" s="3">
+        <f>SUM(B9:B24)</f>
+        <v>411976</v>
+      </c>
+      <c r="C94" s="21">
+        <f>I48</f>
+        <v>1.5039915473115755</v>
+      </c>
+      <c r="D94" s="21">
+        <f t="shared" ref="D94:G94" si="14">J48</f>
+        <v>1.522657900915708</v>
+      </c>
+      <c r="E94" s="21">
+        <f t="shared" si="14"/>
+        <v>0.53146278469124208</v>
+      </c>
+      <c r="F94" s="21">
+        <f t="shared" si="14"/>
+        <v>13.471002582765907</v>
+      </c>
+      <c r="G94" s="21">
+        <f>H48</f>
+        <v>1.8014792204742898</v>
       </c>
     </row>
   </sheetData>

--- a/Test Results.xlsx
+++ b/Test Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\CSC3095-Dissertation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E961459-D5DB-4B38-B0A2-244A22EEC73C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B861E4D-6AA6-44EF-9476-D43D677F2844}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{43AB4C6B-370F-4888-996C-F8629A52645F}"/>
   </bookViews>
@@ -461,7 +461,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -475,11 +475,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-GB"/>
-              <a:t>No. Pix</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-GB" baseline="0"/>
-              <a:t>els (Square)</a:t>
+              <a:t>No. Pixels (Square)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -497,7 +493,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -524,11 +520,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Speed Tests'!$C$4</c:f>
+              <c:f>'Speed Tests'!$D$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Four Way (Recursive)</c:v>
+                  <c:v>Four Way (Linear)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -541,8 +537,8 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:symbol val="diamond"/>
+            <c:size val="6"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
@@ -551,17 +547,17 @@
                 <a:solidFill>
                   <a:schemeClr val="accent1"/>
                 </a:solidFill>
+                <a:round/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
           </c:marker>
           <c:trendline>
             <c:spPr>
-              <a:ln w="19050" cap="rnd">
+              <a:ln w="9525" cap="rnd">
                 <a:solidFill>
                   <a:schemeClr val="accent1"/>
                 </a:solidFill>
-                <a:prstDash val="sysDot"/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -571,56 +567,53 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'Speed Tests'!$B$5:$B$20</c:f>
+              <c:f>'Speed Tests'!$B$6:$B$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>25</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>100</c:v>
+                  <c:v>225</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>225</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>400</c:v>
+                  <c:v>625</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>625</c:v>
+                  <c:v>900</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>900</c:v>
+                  <c:v>1600</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1600</c:v>
+                  <c:v>2500</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2500</c:v>
+                  <c:v>5625</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5625</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10000</c:v>
+                  <c:v>15625</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>15625</c:v>
+                  <c:v>22500</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>22500</c:v>
+                  <c:v>40000</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>40000</c:v>
+                  <c:v>62500</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>62500</c:v>
+                  <c:v>90000</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>90000</c:v>
-                </c:pt>
-                <c:pt idx="15">
                   <c:v>160000</c:v>
                 </c:pt>
               </c:numCache>
@@ -628,57 +621,54 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Speed Tests'!$C$5:$C$20</c:f>
+              <c:f>'Speed Tests'!$D$6:$D$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>38</c:v>
+                  <c:v>146</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>149</c:v>
+                  <c:v>331</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>325</c:v>
+                  <c:v>574</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>582</c:v>
+                  <c:v>896</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>913</c:v>
+                  <c:v>1300</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1317</c:v>
+                  <c:v>2289</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2352</c:v>
+                  <c:v>3563</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3680</c:v>
+                  <c:v>8792</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>15152</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>24574</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>33267</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>56608</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>83682</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>120171</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>215834</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -695,11 +685,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Speed Tests'!$D$4</c:f>
+              <c:f>'Speed Tests'!$E$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Four Way (Linear)</c:v>
+                  <c:v>Span Fill</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -712,8 +702,8 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:symbol val="square"/>
+            <c:size val="6"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
@@ -722,17 +712,17 @@
                 <a:solidFill>
                   <a:schemeClr val="accent2"/>
                 </a:solidFill>
+                <a:round/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
           </c:marker>
           <c:trendline>
             <c:spPr>
-              <a:ln w="19050" cap="rnd">
+              <a:ln w="9525" cap="rnd">
                 <a:solidFill>
                   <a:schemeClr val="accent2"/>
                 </a:solidFill>
-                <a:prstDash val="sysDot"/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -742,56 +732,53 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'Speed Tests'!$B$5:$B$20</c:f>
+              <c:f>'Speed Tests'!$B$6:$B$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>25</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>100</c:v>
+                  <c:v>225</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>225</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>400</c:v>
+                  <c:v>625</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>625</c:v>
+                  <c:v>900</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>900</c:v>
+                  <c:v>1600</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1600</c:v>
+                  <c:v>2500</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2500</c:v>
+                  <c:v>5625</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5625</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10000</c:v>
+                  <c:v>15625</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>15625</c:v>
+                  <c:v>22500</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>22500</c:v>
+                  <c:v>40000</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>40000</c:v>
+                  <c:v>62500</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>62500</c:v>
+                  <c:v>90000</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>90000</c:v>
-                </c:pt>
-                <c:pt idx="15">
                   <c:v>160000</c:v>
                 </c:pt>
               </c:numCache>
@@ -799,57 +786,54 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Speed Tests'!$D$5:$D$20</c:f>
+              <c:f>'Speed Tests'!$E$6:$E$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>36</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>146</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>331</c:v>
+                  <c:v>168</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>574</c:v>
+                  <c:v>249</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>896</c:v>
+                  <c:v>345</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1300</c:v>
+                  <c:v>593</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2289</c:v>
+                  <c:v>911</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3563</c:v>
+                  <c:v>1983</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8792</c:v>
+                  <c:v>3498</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>15152</c:v>
+                  <c:v>5422</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>24574</c:v>
+                  <c:v>7729</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>33267</c:v>
+                  <c:v>13559</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>56608</c:v>
+                  <c:v>21126</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>83682</c:v>
+                  <c:v>30163</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>120171</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>215834</c:v>
+                  <c:v>53488</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -866,11 +850,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Speed Tests'!$E$4</c:f>
+              <c:f>'Speed Tests'!$F$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Span Fill</c:v>
+                  <c:v>Walk Based</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -883,8 +867,8 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:symbol val="triangle"/>
+            <c:size val="6"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent3"/>
@@ -893,17 +877,17 @@
                 <a:solidFill>
                   <a:schemeClr val="accent3"/>
                 </a:solidFill>
+                <a:round/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
           </c:marker>
           <c:trendline>
             <c:spPr>
-              <a:ln w="19050" cap="rnd">
+              <a:ln w="9525" cap="rnd">
                 <a:solidFill>
                   <a:schemeClr val="accent3"/>
                 </a:solidFill>
-                <a:prstDash val="sysDot"/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -913,56 +897,53 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'Speed Tests'!$B$5:$B$20</c:f>
+              <c:f>'Speed Tests'!$B$6:$B$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>25</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>100</c:v>
+                  <c:v>225</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>225</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>400</c:v>
+                  <c:v>625</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>625</c:v>
+                  <c:v>900</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>900</c:v>
+                  <c:v>1600</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1600</c:v>
+                  <c:v>2500</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2500</c:v>
+                  <c:v>5625</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5625</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10000</c:v>
+                  <c:v>15625</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>15625</c:v>
+                  <c:v>22500</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>22500</c:v>
+                  <c:v>40000</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>40000</c:v>
+                  <c:v>62500</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>62500</c:v>
+                  <c:v>90000</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>90000</c:v>
-                </c:pt>
-                <c:pt idx="15">
                   <c:v>160000</c:v>
                 </c:pt>
               </c:numCache>
@@ -970,57 +951,54 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Speed Tests'!$E$5:$E$20</c:f>
+              <c:f>'Speed Tests'!$F$6:$F$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>22</c:v>
+                  <c:v>1478</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>57</c:v>
+                  <c:v>2030</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>99</c:v>
+                  <c:v>2527</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>168</c:v>
+                  <c:v>2986</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>249</c:v>
+                  <c:v>4202</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>345</c:v>
+                  <c:v>5884</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>593</c:v>
+                  <c:v>8977</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>911</c:v>
+                  <c:v>16789</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1983</c:v>
+                  <c:v>30270</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3498</c:v>
+                  <c:v>44203</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5422</c:v>
+                  <c:v>61639</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>7729</c:v>
+                  <c:v>108003</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>13559</c:v>
+                  <c:v>166962</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>21126</c:v>
+                  <c:v>238452</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>30163</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>53488</c:v>
+                  <c:v>430454</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1029,799 +1007,6 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-04CC-4ED0-8DC4-704076269FAD}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Speed Tests'!$F$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Walk Based</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Speed Tests'!$B$5:$B$20</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>225</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>625</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>900</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1600</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2500</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5625</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>15625</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>22500</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>40000</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>62500</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>90000</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>160000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Speed Tests'!$F$5:$F$20</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>1275</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1478</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2030</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2527</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2986</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4202</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>5884</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8977</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>16789</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>30270</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>44203</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>61639</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>108003</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>166962</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>238452</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>430454</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-50B5-4A97-A90B-09A2596E62CE}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Speed Tests'!$G$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Four Way (Recursive)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent5"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Speed Tests'!$B$5:$B$20</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>225</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>625</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>900</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1600</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2500</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5625</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>15625</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>22500</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>40000</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>62500</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>90000</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>160000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Speed Tests'!$G$5:$G$20</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>165</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>380</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>667</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1047</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1504</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2678</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4194</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-50B5-4A97-A90B-09A2596E62CE}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Speed Tests'!$H$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Four Way (Linear)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent6"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Speed Tests'!$B$5:$B$20</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>225</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>625</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>900</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1600</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2500</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5625</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>15625</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>22500</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>40000</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>62500</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>90000</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>160000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Speed Tests'!$H$5:$H$20</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>155</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>334</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>590</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>927</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1352</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2362</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3841</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8390</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>14836</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>23226</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>33418</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>60179</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>94604</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>131444</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>237285</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-50B5-4A97-A90B-09A2596E62CE}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="6"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Speed Tests'!$I$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Span Fill</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="60000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Speed Tests'!$B$5:$B$20</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>225</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>625</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>900</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1600</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2500</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5625</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>15625</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>22500</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>40000</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>62500</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>90000</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>160000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Speed Tests'!$I$5:$I$20</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>95</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>170</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>246</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>343</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>599</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>910</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1987</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3479</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>5382</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>7719</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>13608</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>21314</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>30308</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>53522</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-50B5-4A97-A90B-09A2596E62CE}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="7"/>
-          <c:order val="7"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Speed Tests'!$J$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Walk Based</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2">
-                    <a:lumMod val="60000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Speed Tests'!$B$5:$B$20</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>225</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>625</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>900</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1600</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2500</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5625</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>15625</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>22500</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>40000</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>62500</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>90000</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>160000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Speed Tests'!$J$5:$J$20</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>737</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>901</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1211</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1626</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2422</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3067</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4861</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7449</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>15453</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>27114</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>43209</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>59390</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>116620</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>166097</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>238060</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>422658</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-50B5-4A97-A90B-09A2596E62CE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1864,7 +1049,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -1878,13 +1063,8 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-GB"/>
-                  <a:t>Total number</a:t>
+                  <a:t>Total number of pixels</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="en-GB" baseline="0"/>
-                  <a:t> of pixels</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-GB"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -1901,7 +1081,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -1925,9 +1105,9 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -1986,7 +1166,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -2000,23 +1180,15 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-GB"/>
-                  <a:t>Time (</a:t>
+                  <a:t>Time (S</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="el-GR" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                    <a:effectLst/>
-                  </a:rPr>
-                  <a:t>μ</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-GB" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                    <a:effectLst/>
-                  </a:rPr>
-                  <a:t>s)</a:t>
+                  <a:rPr lang="en-GB" baseline="30000"/>
+                  <a:t>-6</a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-GB"/>
-                  <a:t> </a:t>
+                  <a:t>) </a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -2034,7 +1206,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -2058,9 +1230,9 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -2100,7 +1272,19 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
+      <c:legendPos val="t"/>
+      <c:legendEntry>
+        <c:idx val="3"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="4"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="5"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2136,7 +1320,7 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="bg1"/>
+      <a:schemeClr val="lt1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
@@ -3115,6 +2299,1496 @@
 </file>
 
 <file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Checkers</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> Test</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Speed Tests'!$A$42</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>25% Checkered</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Speed Tests'!$C$40:$G$40</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Brute Force</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Four Way (Recursive)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Four Way (Linear)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Span Fill</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Walk Based</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Speed Tests'!$C$42:$G$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2815</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4541</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5975</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5468</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17709</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C311-490F-BA6A-C42B15125EC8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Speed Tests'!$A$43</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>50% Checkered</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Speed Tests'!$C$40:$G$40</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Brute Force</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Four Way (Recursive)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Four Way (Linear)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Span Fill</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Walk Based</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Speed Tests'!$C$43:$G$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3387</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9315</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11524</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10781</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19442</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C311-490F-BA6A-C42B15125EC8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="444"/>
+        <c:overlap val="-90"/>
+        <c:axId val="663476168"/>
+        <c:axId val="663474200"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="663476168"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="663474200"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="663474200"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="663476168"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>No. Pixels (Circle)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Speed Tests'!$D$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Four Way (Linear)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Speed Tests'!$B$24:$B$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>177</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>316</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>489</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>716</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1268</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1976</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4418</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7860</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12277</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>17693</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>31436</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>49100</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>70711</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>125691</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Speed Tests'!$D$24:$D$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>471</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>718</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1057</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1848</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2886</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6399</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11395</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>17879</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>25560</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>45344</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>72511</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>102041</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>177941</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F32C-4857-A348-BEBA68615936}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Speed Tests'!$E$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Span Fill</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Speed Tests'!$B$24:$B$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>177</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>316</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>489</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>716</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1268</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1976</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4418</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7860</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12277</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>17693</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>31436</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>49100</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>70711</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>125691</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Speed Tests'!$E$24:$E$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>197</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>288</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>479</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>735</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1569</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2760</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4226</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6085</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>10716</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>16624</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>23663</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>41602</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-F32C-4857-A348-BEBA68615936}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Speed Tests'!$F$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Walk Based</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Speed Tests'!$B$24:$B$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>177</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>316</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>489</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>716</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1268</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1976</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4418</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7860</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12277</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>17693</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>31436</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>49100</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>70711</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>125691</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Speed Tests'!$F$24:$F$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>1332</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1594</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2329</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2785</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3295</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5127</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6944</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14017</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>25720</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>37000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>48581</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>85172</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>132857</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>191729</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>350475</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-F32C-4857-A348-BEBA68615936}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="813955616"/>
+        <c:axId val="813956272"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="813955616"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Total number of pixels</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="813956272"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="813956272"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Time (S</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="30000"/>
+                  <a:t>-6</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>) </a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="813955616"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:legendEntry>
+        <c:idx val="3"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="4"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="5"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -4890,7 +5564,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -6663,7 +7337,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -8348,7 +9022,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -11326,81 +12000,6 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
-            <c:dLbl>
-              <c:idx val="0"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                    <a:spAutoFit/>
-                  </a:bodyPr>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:pPr>
-                      <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                        <a:solidFill>
-                          <a:schemeClr val="tx1">
-                            <a:lumMod val="50000"/>
-                            <a:lumOff val="50000"/>
-                          </a:schemeClr>
-                        </a:solidFill>
-                        <a:latin typeface="+mn-lt"/>
-                        <a:ea typeface="+mn-ea"/>
-                        <a:cs typeface="+mn-cs"/>
-                      </a:defRPr>
-                    </a:pPr>
-                    <a:r>
-                      <a:rPr lang="en-US"/>
-                      <a:t>N/A</a:t>
-                    </a:r>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                  <a:spAutoFit/>
-                </a:bodyPr>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="50000"/>
-                          <a:lumOff val="50000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-              <c:dLblPos val="outEnd"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000002-10F7-4CD1-A222-9E71A9F8FDB1}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
             <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
             <c:spPr>
               <a:noFill/>
@@ -11460,22 +12059,19 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Speed Tests'!$C$45:$G$45</c:f>
+              <c:f>'Speed Tests'!$D$45:$G$45</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>Brute Force</c:v>
+                  <c:v>Four Way (Recursive)</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Four Way (Recursive)</c:v>
+                  <c:v>Four Way (Linear)</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Four Way (Linear)</c:v>
+                  <c:v>Span Fill</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Span Fill</c:v>
-                </c:pt>
-                <c:pt idx="4">
                   <c:v>Walk Based</c:v>
                 </c:pt>
               </c:strCache>
@@ -11483,23 +12079,20 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Speed Tests'!$C$46:$G$46</c:f>
+              <c:f>'Speed Tests'!$D$46:$G$46</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1.4583025050206109</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.4583025050206109</c:v>
+                  <c:v>1.4387176964429462</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.4387176964429462</c:v>
+                  <c:v>0.33687301259295122</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.33687301259295122</c:v>
-                </c:pt>
-                <c:pt idx="4">
                   <c:v>2.8075095071693155</c:v>
                 </c:pt>
               </c:numCache>
@@ -11528,216 +12121,6 @@
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:dLbl>
-              <c:idx val="0"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                    <a:spAutoFit/>
-                  </a:bodyPr>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:pPr>
-                      <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                        <a:solidFill>
-                          <a:schemeClr val="tx1">
-                            <a:lumMod val="50000"/>
-                            <a:lumOff val="50000"/>
-                          </a:schemeClr>
-                        </a:solidFill>
-                        <a:latin typeface="+mn-lt"/>
-                        <a:ea typeface="+mn-ea"/>
-                        <a:cs typeface="+mn-cs"/>
-                      </a:defRPr>
-                    </a:pPr>
-                    <a:r>
-                      <a:rPr lang="en-US"/>
-                      <a:t>N/A</a:t>
-                    </a:r>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                  <a:spAutoFit/>
-                </a:bodyPr>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="50000"/>
-                          <a:lumOff val="50000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-              <c:dLblPos val="outEnd"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000001-10F7-4CD1-A222-9E71A9F8FDB1}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="50000"/>
-                        <a:lumOff val="50000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Speed Tests'!$C$45:$G$45</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>Brute Force</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Four Way (Recursive)</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Four Way (Linear)</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Span Fill</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Walk Based</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Speed Tests'!$C$47:$G$47</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.467607843137255</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.3746501060284761</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.33786610118146015</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.7291875189336565</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-8CFA-4063-BA1A-C196AD454D40}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Speed Tests'!$A$48</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Town</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -11805,22 +12188,19 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Speed Tests'!$C$45:$G$45</c:f>
+              <c:f>'Speed Tests'!$D$45:$G$45</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>Brute Force</c:v>
+                  <c:v>Four Way (Recursive)</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Four Way (Recursive)</c:v>
+                  <c:v>Four Way (Linear)</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Four Way (Linear)</c:v>
+                  <c:v>Span Fill</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Span Fill</c:v>
-                </c:pt>
-                <c:pt idx="4">
                   <c:v>Walk Based</c:v>
                 </c:pt>
               </c:strCache>
@@ -11828,301 +12208,28 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Speed Tests'!$C$48:$G$48</c:f>
+              <c:f>'Speed Tests'!$D$47:$G$47</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1.6535571730453158</c:v>
+                  <c:v>1.467607843137255</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.45621037802301</c:v>
+                  <c:v>1.3746501060284761</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.4119511622446583</c:v>
+                  <c:v>0.33786610118146015</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.51350082178915235</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>13.369570321671754</c:v>
+                  <c:v>2.7291875189336565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-56C8-47C3-93DD-8C28E1259749}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Speed Tests'!$A$49</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>25% Checkered</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="50000"/>
-                        <a:lumOff val="50000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Speed Tests'!$C$45:$G$45</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>Brute Force</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Four Way (Recursive)</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Four Way (Linear)</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Span Fill</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Walk Based</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Speed Tests'!$C$49:$G$49</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>1.2217881944444444</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.9709201388888888</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.5933159722222223</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.3732638888888888</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7.686197916666667</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-37E6-4FEF-A648-B739BC8181DB}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Speed Tests'!$A$50</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>50% Checkered</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent5"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="50000"/>
-                        <a:lumOff val="50000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Speed Tests'!$C$45:$G$45</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>Brute Force</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Four Way (Recursive)</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Four Way (Linear)</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Span Fill</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Walk Based</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Speed Tests'!$C$50:$G$50</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>0.74276315789473679</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.0427631578947367</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.5271929824561403</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.3642543859649123</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4.2635964912280704</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-37E6-4FEF-A648-B739BC8181DB}"/>
+              <c16:uniqueId val="{00000001-8CFA-4063-BA1A-C196AD454D40}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -12410,6 +12517,638 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Total Time</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Speed Tests'!$A$60</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Cirlce</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Speed Tests'!$B$59:$E$59</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Brute Force</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Four Way (Linear)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Span Fill</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Walk Based</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Speed Tests'!$B$60:$E$60</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>256730</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>466474</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>109224</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>910276</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FBF1-475F-A767-E5E98974E494}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Speed Tests'!$A$61</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Square</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Speed Tests'!$B$59:$E$59</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Brute Force</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Four Way (Linear)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Span Fill</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Walk Based</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Speed Tests'!$B$61:$E$61</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>285303</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>567215</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>139412</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1126131</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-FBF1-475F-A767-E5E98974E494}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="444"/>
+        <c:overlap val="-90"/>
+        <c:axId val="742158040"/>
+        <c:axId val="742161648"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="742158040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="742161648"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="742161648"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1000" b="0" i="0" cap="all" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>TIme (</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="el-GR" sz="1000" b="0" i="0" cap="all" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>μ</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1000" b="0" i="0" cap="all" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>s)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB" sz="300">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="742158040"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
               <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
@@ -12424,11 +13163,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-GB"/>
-              <a:t>Total</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-GB" baseline="0"/>
-              <a:t> Time</a:t>
+              <a:t>Town 100x100</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -12472,17 +13207,6 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Speed Tests'!$A$60</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Cirlce</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -12552,19 +13276,22 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Speed Tests'!$B$59:$E$59</c:f>
+              <c:f>'Speed Tests'!$C$40:$G$40</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>Brute Force</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>Four Way (Recursive)</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>Four Way (Linear)</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>Span Fill</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>Walk Based</c:v>
                 </c:pt>
               </c:strCache>
@@ -12572,156 +13299,31 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Speed Tests'!$B$60:$E$60</c:f>
+              <c:f>'Speed Tests'!$C$41:$G$41</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>256730</c:v>
+                  <c:v>14085</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>466474</c:v>
+                  <c:v>12404</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>109224</c:v>
+                  <c:v>12027</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>910276</c:v>
+                  <c:v>4374</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>113882</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-FBF1-475F-A767-E5E98974E494}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Speed Tests'!$A$61</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Square</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Speed Tests'!$B$59:$E$59</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>Brute Force</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Four Way (Linear)</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Span Fill</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Walk Based</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Speed Tests'!$B$61:$E$61</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>285303</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>567215</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>139412</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1126131</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-FBF1-475F-A767-E5E98974E494}"/>
+              <c16:uniqueId val="{00000000-16CE-4C5F-B93B-C78BB9E98B7B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -12735,588 +13337,6 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="742158040"/>
-        <c:axId val="742161648"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="742158040"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="742161648"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="742161648"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="742158040"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-GB"/>
-              <a:t>Practise</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-GB" baseline="0"/>
-              <a:t> Town 100x100</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-GB"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="bar"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Speed Tests'!$B$40:$L$40</c:f>
-              <c:strCache>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>No. Pixels</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Brute Force</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Four Way (Recursive)</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Four Way (Linear)</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Span Fill</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Walk Based</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Brute Force</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Four Way (Recursive)</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Four Way (Linear)</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Span Fill</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Walk Based</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Speed Tests'!$B$41:$L$41</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>8518</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>14085</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>12404</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>12027</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4374</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>113882</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>15345</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12811</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>12970</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4527</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>114746</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-16CE-4C5F-B93B-C78BB9E98B7B}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Speed Tests'!$B$40:$L$40</c:f>
-              <c:strCache>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>No. Pixels</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Brute Force</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Four Way (Recursive)</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Four Way (Linear)</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Span Fill</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Walk Based</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Brute Force</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Four Way (Recursive)</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Four Way (Linear)</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Span Fill</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Walk Based</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Speed Tests'!$B$42:$L$42</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>2304</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2815</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4541</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5975</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5468</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>17709</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2956</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4769</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5996</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>5349</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>13472</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-16CE-4C5F-B93B-C78BB9E98B7B}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Speed Tests'!$B$40:$L$40</c:f>
-              <c:strCache>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>No. Pixels</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Brute Force</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Four Way (Recursive)</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Four Way (Linear)</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Span Fill</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Walk Based</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Brute Force</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Four Way (Recursive)</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Four Way (Linear)</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Span Fill</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Walk Based</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Speed Tests'!$B$43:$L$43</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>4560</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3387</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>9315</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>11524</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>10781</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>19442</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3201</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8705</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>11390</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9655</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>18774</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-16CE-4C5F-B93B-C78BB9E98B7B}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="182"/>
         <c:axId val="554757192"/>
         <c:axId val="554756864"/>
       </c:barChart>
@@ -13326,7 +13346,7 @@
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
-        <c:axPos val="l"/>
+        <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -13377,7 +13397,7 @@
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
-        <c:axPos val="b"/>
+        <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -16259,6 +16279,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors15.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors16.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -16580,6 +16680,526 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="241">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -17095,7 +17715,1051 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="202">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+    <cs:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="241">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style13.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -17611,7 +19275,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style14.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -18127,7 +19791,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style15.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -18643,7 +20307,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style16.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -19159,7 +20823,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -19675,8 +21339,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="202">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -19687,7 +21351,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -19703,25 +21367,25 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="800" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
   </cs:categoryAxis>
   <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="bg1"/>
+        <a:schemeClr val="lt1"/>
       </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
@@ -19733,7 +21397,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -19741,11 +21405,14 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+    <cs:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
   </cs:dataLabel>
   <cs:dataLabelCallout>
     <cs:lnRef idx="0"/>
@@ -19777,6 +21444,1051 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="202">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+    <cs:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
     <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
@@ -19805,7 +22517,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+      <a:ln w="28575" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -19837,10 +22549,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -19880,23 +22592,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -20001,8 +22712,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -20134,20 +22845,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -20161,17 +22871,6 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -20191,531 +22890,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="202">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200" cap="all"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="800" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
-    <cs:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="22225" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout size="6"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="800" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -21218,8 +23393,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -21423,23 +23598,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -21544,8 +23718,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -21677,20 +23851,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -21723,7 +23896,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -22226,8 +24399,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -22254,8 +24427,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -22356,7 +24529,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -22388,1012 +24561,6 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
@@ -23752,16 +24919,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>51025</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>491217</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>214311</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>170088</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>186417</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>129267</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -24116,6 +25283,80 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>81642</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>111579</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>367392</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>106136</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="20" name="Chart 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C91806C-81CA-4FDB-BB0E-E28BC840D28A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>307521</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>78242</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="21" name="Chart 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E5B23B7-94D1-4B37-A856-736851EC77BF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId12"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -24575,8 +25816,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83AD4CD4-0469-4BD9-B9A9-48BE844E1797}">
   <dimension ref="A1:L94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B60" sqref="B60"/>
+    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Test Results.xlsx
+++ b/Test Results.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\CSC3095-Dissertation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jack\Documents\CSC3095-Dissertation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B861E4D-6AA6-44EF-9476-D43D677F2844}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{592EC9B3-730C-4AAA-8C6B-9F2010C5C201}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{43AB4C6B-370F-4888-996C-F8629A52645F}"/>
+    <workbookView xWindow="10410" yWindow="240" windowWidth="20985" windowHeight="9270" activeTab="2" xr2:uid="{43AB4C6B-370F-4888-996C-F8629A52645F}"/>
   </bookViews>
   <sheets>
     <sheet name="Speed Tests" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Memory Tests" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="39">
   <si>
     <t>Span Fill</t>
   </si>
@@ -147,6 +147,33 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>Span</t>
+  </si>
+  <si>
+    <t>mb</t>
+  </si>
+  <si>
+    <t>Sqaure</t>
+  </si>
+  <si>
+    <t>Checker 25</t>
+  </si>
+  <si>
+    <t>checker 50</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Linear</t>
+  </si>
+  <si>
+    <t>Recursion</t>
+  </si>
+  <si>
+    <t>stack</t>
   </si>
 </sst>
 </file>
@@ -25816,7 +25843,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83AD4CD4-0469-4BD9-B9A9-48BE844E1797}">
   <dimension ref="A1:L94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A33" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
@@ -27967,14 +27994,450 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D5F1935-8B2F-4AEE-982B-1E3158B80401}">
-  <dimension ref="A1"/>
+  <dimension ref="B3:N16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" t="s">
+        <v>37</v>
+      </c>
+      <c r="J4" t="s">
+        <v>30</v>
+      </c>
+      <c r="K4" t="s">
+        <v>36</v>
+      </c>
+      <c r="L4" t="s">
+        <v>4</v>
+      </c>
+      <c r="M4" t="s">
+        <v>20</v>
+      </c>
+      <c r="N4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5">
+        <v>51.9</v>
+      </c>
+      <c r="D5">
+        <v>88.3</v>
+      </c>
+      <c r="E5">
+        <v>153</v>
+      </c>
+      <c r="F5">
+        <v>50.9</v>
+      </c>
+      <c r="G5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" t="s">
+        <v>6</v>
+      </c>
+      <c r="J5">
+        <v>543.59</v>
+      </c>
+      <c r="K5">
+        <v>1241.93</v>
+      </c>
+      <c r="L5">
+        <v>2048.42</v>
+      </c>
+      <c r="M5">
+        <v>547.75</v>
+      </c>
+      <c r="N5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6">
+        <v>51.8</v>
+      </c>
+      <c r="D6">
+        <v>98.4</v>
+      </c>
+      <c r="E6">
+        <v>176.5</v>
+      </c>
+      <c r="F6">
+        <v>50.9</v>
+      </c>
+      <c r="G6" t="s">
+        <v>29</v>
+      </c>
+      <c r="I6" t="s">
+        <v>32</v>
+      </c>
+      <c r="J6">
+        <v>576.77</v>
+      </c>
+      <c r="K6">
+        <v>1300.673</v>
+      </c>
+      <c r="L6">
+        <v>2251.41</v>
+      </c>
+      <c r="M6">
+        <v>545.13</v>
+      </c>
+      <c r="N6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="D7">
+        <v>4.2</v>
+      </c>
+      <c r="E7">
+        <v>24.6</v>
+      </c>
+      <c r="F7">
+        <v>2.8</v>
+      </c>
+      <c r="G7">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="I7" t="s">
+        <v>14</v>
+      </c>
+      <c r="J7">
+        <v>95.11</v>
+      </c>
+      <c r="K7">
+        <v>70.069999999999993</v>
+      </c>
+      <c r="L7">
+        <v>428.26</v>
+      </c>
+      <c r="M7">
+        <v>40.75</v>
+      </c>
+      <c r="N7">
+        <v>57.73</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8">
+        <v>80.599999999999994</v>
+      </c>
+      <c r="D8">
+        <v>20.8</v>
+      </c>
+      <c r="E8">
+        <v>61.7</v>
+      </c>
+      <c r="F8">
+        <v>1.8</v>
+      </c>
+      <c r="G8">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I8" t="s">
+        <v>33</v>
+      </c>
+      <c r="J8">
+        <v>2181.41</v>
+      </c>
+      <c r="K8">
+        <v>526.03</v>
+      </c>
+      <c r="L8">
+        <v>1064.6400000000001</v>
+      </c>
+      <c r="M8">
+        <v>25.9</v>
+      </c>
+      <c r="N8">
+        <v>24.4</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9">
+        <v>157.9</v>
+      </c>
+      <c r="D9">
+        <v>39.4</v>
+      </c>
+      <c r="E9">
+        <v>120.5</v>
+      </c>
+      <c r="F9">
+        <v>1.9</v>
+      </c>
+      <c r="G9">
+        <v>1.7</v>
+      </c>
+      <c r="I9" t="s">
+        <v>34</v>
+      </c>
+      <c r="J9">
+        <v>4400.57</v>
+      </c>
+      <c r="K9">
+        <v>1033.55</v>
+      </c>
+      <c r="L9">
+        <v>2107.59</v>
+      </c>
+      <c r="M9">
+        <v>24.61</v>
+      </c>
+      <c r="N9">
+        <v>25.24</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12">
+        <v>51.5</v>
+      </c>
+      <c r="D12">
+        <v>98.7</v>
+      </c>
+      <c r="E12">
+        <v>152.9</v>
+      </c>
+      <c r="F12">
+        <v>50.9</v>
+      </c>
+      <c r="G12" t="s">
+        <v>29</v>
+      </c>
+      <c r="I12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J12">
+        <v>558.65</v>
+      </c>
+      <c r="K12">
+        <v>1201.72</v>
+      </c>
+      <c r="L12">
+        <v>2009.03</v>
+      </c>
+      <c r="M12">
+        <v>578.28</v>
+      </c>
+      <c r="N12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13">
+        <v>51.5</v>
+      </c>
+      <c r="D13">
+        <v>119.3</v>
+      </c>
+      <c r="E13">
+        <v>176.4</v>
+      </c>
+      <c r="F13">
+        <v>50.9</v>
+      </c>
+      <c r="G13" t="s">
+        <v>29</v>
+      </c>
+      <c r="I13" t="s">
+        <v>32</v>
+      </c>
+      <c r="J13">
+        <v>591.11</v>
+      </c>
+      <c r="K13">
+        <v>1447.77</v>
+      </c>
+      <c r="L13">
+        <v>2371.0100000000002</v>
+      </c>
+      <c r="M13">
+        <v>575.08000000000004</v>
+      </c>
+      <c r="N13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14">
+        <v>3.4</v>
+      </c>
+      <c r="D14">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E14">
+        <v>21.7</v>
+      </c>
+      <c r="F14">
+        <v>2.8</v>
+      </c>
+      <c r="G14">
+        <v>4.5</v>
+      </c>
+      <c r="I14" t="s">
+        <v>14</v>
+      </c>
+      <c r="J14">
+        <v>60.36</v>
+      </c>
+      <c r="K14">
+        <v>71.33</v>
+      </c>
+      <c r="L14">
+        <v>330.53</v>
+      </c>
+      <c r="M14">
+        <v>37.1</v>
+      </c>
+      <c r="N14">
+        <v>72.239999999999995</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15">
+        <v>19.5</v>
+      </c>
+      <c r="D15">
+        <v>19.5</v>
+      </c>
+      <c r="E15">
+        <v>41.3</v>
+      </c>
+      <c r="F15">
+        <v>0.5</v>
+      </c>
+      <c r="G15">
+        <v>19.3</v>
+      </c>
+      <c r="I15" t="s">
+        <v>33</v>
+      </c>
+      <c r="J15">
+        <v>528.85</v>
+      </c>
+      <c r="K15">
+        <v>532.88</v>
+      </c>
+      <c r="L15">
+        <v>566.03</v>
+      </c>
+      <c r="M15">
+        <v>16.52</v>
+      </c>
+      <c r="N15">
+        <v>529.78</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16">
+        <v>38.1</v>
+      </c>
+      <c r="D16">
+        <v>38.1</v>
+      </c>
+      <c r="E16">
+        <v>81.400000000000006</v>
+      </c>
+      <c r="F16">
+        <v>0.6</v>
+      </c>
+      <c r="G16">
+        <v>37.799999999999997</v>
+      </c>
+      <c r="I16" t="s">
+        <v>34</v>
+      </c>
+      <c r="J16">
+        <v>1045</v>
+      </c>
+      <c r="K16">
+        <v>1047.6400000000001</v>
+      </c>
+      <c r="L16">
+        <v>1102.75</v>
+      </c>
+      <c r="M16">
+        <v>10.77</v>
+      </c>
+      <c r="N16">
+        <v>1042.5899999999999</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Test Results.xlsx
+++ b/Test Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\CSC3095-Dissertation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF56DBD4-02EA-48B5-9CD3-958D5D583333}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D57F2551-80BD-4822-B04A-76893F8AC83C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{43AB4C6B-370F-4888-996C-F8629A52645F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{43AB4C6B-370F-4888-996C-F8629A52645F}"/>
   </bookViews>
   <sheets>
     <sheet name="Speed Tests" sheetId="1" r:id="rId1"/>
@@ -38527,7 +38527,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D5F1935-8B2F-4AEE-982B-1E3158B80401}">
   <dimension ref="B3:AD18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
@@ -38703,7 +38703,7 @@
         <v>41</v>
       </c>
       <c r="AB5">
-        <f t="shared" ref="AA5:AD5" si="3">SUM(G5-G14)</f>
+        <f t="shared" ref="AB5:AD5" si="3">SUM(G5-G14)</f>
         <v>10.400000000000006</v>
       </c>
       <c r="AC5">
@@ -38865,7 +38865,7 @@
         <v>0</v>
       </c>
       <c r="AA7">
-        <f t="shared" ref="AA6:AA9" si="10">SUM(F7-F16)</f>
+        <f t="shared" ref="AA7:AA9" si="10">SUM(F7-F16)</f>
         <v>0.40000000000000036</v>
       </c>
       <c r="AB7">
